--- a/data_reuters/symbols.xlsx
+++ b/data_reuters/symbols.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\Reuters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marciuscorreialima/Documents/GitHub/consensus_project/data_reuters/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA85042-926B-7943-A029-7BF227BE36E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="3080" yWindow="460" windowWidth="24300" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="910">
   <si>
     <t>TIKER</t>
   </si>
@@ -1290,12 +1291,1476 @@
   </si>
   <si>
     <t>HGTX3.SA</t>
+  </si>
+  <si>
+    <t>HOME34</t>
+  </si>
+  <si>
+    <t>HOME34.SA</t>
+  </si>
+  <si>
+    <t>HOOT4</t>
+  </si>
+  <si>
+    <t>HOOT4.SA</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>HYPE3.SA</t>
+  </si>
+  <si>
+    <t>IDNT3</t>
+  </si>
+  <si>
+    <t>IDNT3.SA</t>
+  </si>
+  <si>
+    <t>IDVL4</t>
+  </si>
+  <si>
+    <t>IDVL4.SA</t>
+  </si>
+  <si>
+    <t>IGBR3</t>
+  </si>
+  <si>
+    <t>IGBR3.SA</t>
+  </si>
+  <si>
+    <t>IGBR5</t>
+  </si>
+  <si>
+    <t>IGBR5.SA^B07</t>
+  </si>
+  <si>
+    <t>IGTA3</t>
+  </si>
+  <si>
+    <t>IGTA3.SA</t>
+  </si>
+  <si>
+    <t>INEP3</t>
+  </si>
+  <si>
+    <t>INEP3.SA</t>
+  </si>
+  <si>
+    <t>INEP4</t>
+  </si>
+  <si>
+    <t>INEP4.SA</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>IRBR3.SA</t>
+  </si>
+  <si>
+    <t>ITLC34</t>
+  </si>
+  <si>
+    <t>ITLC34.SA</t>
+  </si>
+  <si>
+    <t>ITSA3</t>
+  </si>
+  <si>
+    <t>ITSA3.SA</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>ITSA4.SA</t>
+  </si>
+  <si>
+    <t>ITUB3</t>
+  </si>
+  <si>
+    <t>ITUB3.SA</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITUB4.SA</t>
+  </si>
+  <si>
+    <t>JBDU3</t>
+  </si>
+  <si>
+    <t>JBDU3.SA</t>
+  </si>
+  <si>
+    <t>JBDU4</t>
+  </si>
+  <si>
+    <t>JBDU4.SA</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>JBSS3.SA</t>
+  </si>
+  <si>
+    <t>JFEN3</t>
+  </si>
+  <si>
+    <t>JFEN3.SA</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>JHSF3.SA</t>
+  </si>
+  <si>
+    <t>JNJB34</t>
+  </si>
+  <si>
+    <t>JNJB34.SA</t>
+  </si>
+  <si>
+    <t>JOPA3</t>
+  </si>
+  <si>
+    <t>JOPA3.SA</t>
+  </si>
+  <si>
+    <t>JPMC34</t>
+  </si>
+  <si>
+    <t>JPMC34.SA</t>
+  </si>
+  <si>
+    <t>JPSA3</t>
+  </si>
+  <si>
+    <t>JPSA3.SA</t>
+  </si>
+  <si>
+    <t>JSLG3</t>
+  </si>
+  <si>
+    <t>JSLG3.SA</t>
+  </si>
+  <si>
+    <t>KEPL3</t>
+  </si>
+  <si>
+    <t>KEPL3.SA</t>
+  </si>
+  <si>
+    <t>KLBN3</t>
+  </si>
+  <si>
+    <t>KLBN3.SA</t>
+  </si>
+  <si>
+    <t>KLBN4</t>
+  </si>
+  <si>
+    <t>KLBN4.SA</t>
+  </si>
+  <si>
+    <t>LAME3</t>
+  </si>
+  <si>
+    <t>LAME3.SA</t>
+  </si>
+  <si>
+    <t>LAME4</t>
+  </si>
+  <si>
+    <t>LAME4.SA</t>
+  </si>
+  <si>
+    <t>LCAM3</t>
+  </si>
+  <si>
+    <t>LCAM3.SA</t>
+  </si>
+  <si>
+    <t>LEVE3</t>
+  </si>
+  <si>
+    <t>LEVE3.SA</t>
+  </si>
+  <si>
+    <t>LEVE4</t>
+  </si>
+  <si>
+    <t>LEVE4.SA^A11</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>LIGT3.SA</t>
+  </si>
+  <si>
+    <t>LINX3</t>
+  </si>
+  <si>
+    <t>LINX3.SA</t>
+  </si>
+  <si>
+    <t>LIPR3</t>
+  </si>
+  <si>
+    <t>LIPR3.SA</t>
+  </si>
+  <si>
+    <t>LLIS3</t>
+  </si>
+  <si>
+    <t>LLIS3.SA</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t>LOGG3.SA</t>
+  </si>
+  <si>
+    <t>LOGN3</t>
+  </si>
+  <si>
+    <t>LOGN3.SA</t>
+  </si>
+  <si>
+    <t>LPSB3</t>
+  </si>
+  <si>
+    <t>LPSB3.SA</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>LREN3.SA</t>
+  </si>
+  <si>
+    <t>LUPA3</t>
+  </si>
+  <si>
+    <t>LUPA3.SA</t>
+  </si>
+  <si>
+    <t>LUXM3</t>
+  </si>
+  <si>
+    <t>LUXM3.SA</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>LWSA3.SA</t>
+  </si>
+  <si>
+    <t>MAPT3</t>
+  </si>
+  <si>
+    <t>MAPT3.SA</t>
+  </si>
+  <si>
+    <t>MAPT4</t>
+  </si>
+  <si>
+    <t>MAPT4.SA</t>
+  </si>
+  <si>
+    <t>MCDC34</t>
+  </si>
+  <si>
+    <t>MCDC34.SA</t>
+  </si>
+  <si>
+    <t>MDIA3</t>
+  </si>
+  <si>
+    <t>MDIA3.SA</t>
+  </si>
+  <si>
+    <t>MDNE3</t>
+  </si>
+  <si>
+    <t>MDNE3.SA</t>
+  </si>
+  <si>
+    <t>MEAL3</t>
+  </si>
+  <si>
+    <t>MEAL3.SA</t>
+  </si>
+  <si>
+    <t>MERC3</t>
+  </si>
+  <si>
+    <t>MERC3.SA</t>
+  </si>
+  <si>
+    <t>MGEL3</t>
+  </si>
+  <si>
+    <t>MGEL3.SA</t>
+  </si>
+  <si>
+    <t>MGEL4</t>
+  </si>
+  <si>
+    <t>MGEL4.SA</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MGLU3.SA</t>
+  </si>
+  <si>
+    <t>MILS3</t>
+  </si>
+  <si>
+    <t>MILS3.SA</t>
+  </si>
+  <si>
+    <t>MMMC34</t>
+  </si>
+  <si>
+    <t>MMMC34.SA</t>
+  </si>
+  <si>
+    <t>MMXM3</t>
+  </si>
+  <si>
+    <t>MMXM3.SA</t>
+  </si>
+  <si>
+    <t>MNDL3</t>
+  </si>
+  <si>
+    <t>MNDL3.SA</t>
+  </si>
+  <si>
+    <t>MNDL4</t>
+  </si>
+  <si>
+    <t>MNDL4.SA^C12</t>
+  </si>
+  <si>
+    <t>MNPR3</t>
+  </si>
+  <si>
+    <t>MNPR3.SA</t>
+  </si>
+  <si>
+    <t>MNPR4</t>
+  </si>
+  <si>
+    <t>MNPR4.SA^L07</t>
+  </si>
+  <si>
+    <t>MOAR3</t>
+  </si>
+  <si>
+    <t>MOAR3.SA</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>MOVI3.SA</t>
+  </si>
+  <si>
+    <t>MRCK34</t>
+  </si>
+  <si>
+    <t>MRCK34.SA</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>MRFG3.SA</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>MRVE3.SA</t>
+  </si>
+  <si>
+    <t>MSFT34</t>
+  </si>
+  <si>
+    <t>MSFT34.SA</t>
+  </si>
+  <si>
+    <t>MSPA3</t>
+  </si>
+  <si>
+    <t>MSPA3.SA</t>
+  </si>
+  <si>
+    <t>MTIG3</t>
+  </si>
+  <si>
+    <t>MTIG3.SA</t>
+  </si>
+  <si>
+    <t>MTIG4</t>
+  </si>
+  <si>
+    <t>MTIG4.SA</t>
+  </si>
+  <si>
+    <t>MTRE3</t>
+  </si>
+  <si>
+    <t>MTRE3.SA</t>
+  </si>
+  <si>
+    <t>MTSA4</t>
+  </si>
+  <si>
+    <t>MTSA4.SA</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>MULT3.SA</t>
+  </si>
+  <si>
+    <t>MWET3</t>
+  </si>
+  <si>
+    <t>MWET3.SA</t>
+  </si>
+  <si>
+    <t>MWET4</t>
+  </si>
+  <si>
+    <t>MWET4.SA</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>MYPK3.SA</t>
+  </si>
+  <si>
+    <t>MYPK4</t>
+  </si>
+  <si>
+    <t>MYPK4.SA^J09</t>
+  </si>
+  <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
+    <t>NEOE3.SA</t>
+  </si>
+  <si>
+    <t>NORD3</t>
+  </si>
+  <si>
+    <t>NORD3.SA</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>NTCO3.SA</t>
+  </si>
+  <si>
+    <t>NUTR3</t>
+  </si>
+  <si>
+    <t>NUTR3.SA</t>
+  </si>
+  <si>
+    <t>ODPV3</t>
+  </si>
+  <si>
+    <t>ODPV3.SA</t>
+  </si>
+  <si>
+    <t>OFSA3</t>
+  </si>
+  <si>
+    <t>OFSA3.SA</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>OIBR3.SA</t>
+  </si>
+  <si>
+    <t>OIBR4</t>
+  </si>
+  <si>
+    <t>OIBR4.SA</t>
+  </si>
+  <si>
+    <t>OMGE3</t>
+  </si>
+  <si>
+    <t>OMGE3.SA</t>
+  </si>
+  <si>
+    <t>ORCL34</t>
+  </si>
+  <si>
+    <t>ORCL34.SA</t>
+  </si>
+  <si>
+    <t>OSXB3</t>
+  </si>
+  <si>
+    <t>OSXB3.SA</t>
+  </si>
+  <si>
+    <t>PARD3</t>
+  </si>
+  <si>
+    <t>PARD3.SA</t>
+  </si>
+  <si>
+    <t>PATI3</t>
+  </si>
+  <si>
+    <t>PATI3.SA</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>PCAR3.SA</t>
+  </si>
+  <si>
+    <t>PCAR4</t>
+  </si>
+  <si>
+    <t>PCAR4.SA^C20</t>
+  </si>
+  <si>
+    <t>PCAR5</t>
+  </si>
+  <si>
+    <t>PCAR5D.SA^A12</t>
+  </si>
+  <si>
+    <t>PDGR3</t>
+  </si>
+  <si>
+    <t>PDGR3.SA</t>
+  </si>
+  <si>
+    <t>PEAB3</t>
+  </si>
+  <si>
+    <t>PEAB3.SA</t>
+  </si>
+  <si>
+    <t>PEPB34</t>
+  </si>
+  <si>
+    <t>PEPB34.SA</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>PETR3.SA</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>PETR4.SA</t>
+  </si>
+  <si>
+    <t>PFIZ34</t>
+  </si>
+  <si>
+    <t>PFIZ34.SA</t>
+  </si>
+  <si>
+    <t>PFRM3</t>
+  </si>
+  <si>
+    <t>PFRM3.SA</t>
+  </si>
+  <si>
+    <t>PINE3</t>
+  </si>
+  <si>
+    <t>PINE3.SA</t>
+  </si>
+  <si>
+    <t>PINE4</t>
+  </si>
+  <si>
+    <t>PINE4.SA</t>
+  </si>
+  <si>
+    <t>PLAS3</t>
+  </si>
+  <si>
+    <t>PLAS3.SA</t>
+  </si>
+  <si>
+    <t>PLAS4</t>
+  </si>
+  <si>
+    <t>PLAS4.SA^D07</t>
+  </si>
+  <si>
+    <t>PMAM3</t>
+  </si>
+  <si>
+    <t>PMAM3.SA</t>
+  </si>
+  <si>
+    <t>PMAM4</t>
+  </si>
+  <si>
+    <t>PMAM4.SA^D10</t>
+  </si>
+  <si>
+    <t>PNVL3</t>
+  </si>
+  <si>
+    <t>PNVL3.SA</t>
+  </si>
+  <si>
+    <t>POMO3</t>
+  </si>
+  <si>
+    <t>POMO3.SA</t>
+  </si>
+  <si>
+    <t>POMO4</t>
+  </si>
+  <si>
+    <t>POMO4.SA</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>POSI3.SA</t>
+  </si>
+  <si>
+    <t>PRGA4</t>
+  </si>
+  <si>
+    <t>PRGA4.SA^D06</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>PRIO3.SA</t>
+  </si>
+  <si>
+    <t>PRNR3</t>
+  </si>
+  <si>
+    <t>PRNR3.SA</t>
+  </si>
+  <si>
+    <t>PSSA3</t>
+  </si>
+  <si>
+    <t>PSSA3.SA</t>
+  </si>
+  <si>
+    <t>PTBL3</t>
+  </si>
+  <si>
+    <t>PTBL3.SA</t>
+  </si>
+  <si>
+    <t>PTBL4</t>
+  </si>
+  <si>
+    <t>PTBL4.SA^A08</t>
+  </si>
+  <si>
+    <t>PTNT3</t>
+  </si>
+  <si>
+    <t>PTNT3.SA</t>
+  </si>
+  <si>
+    <t>PTNT4</t>
+  </si>
+  <si>
+    <t>PTNT4.SA</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>QUAL3.SA</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>RADL3.SA</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>RAIL3.SA</t>
+  </si>
+  <si>
+    <t>RANI3</t>
+  </si>
+  <si>
+    <t>RANI3.SA</t>
+  </si>
+  <si>
+    <t>RAPT3</t>
+  </si>
+  <si>
+    <t>RAPT3.SA</t>
+  </si>
+  <si>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t>RAPT4.SA</t>
+  </si>
+  <si>
+    <t>RCSL4</t>
+  </si>
+  <si>
+    <t>RCSL4.SA</t>
+  </si>
+  <si>
+    <t>RCTB31</t>
+  </si>
+  <si>
+    <t>RCTB31.SA^K06</t>
+  </si>
+  <si>
+    <t>RCTB33</t>
+  </si>
+  <si>
+    <t>RCTB33.SA^I06</t>
+  </si>
+  <si>
+    <t>RCTB41</t>
+  </si>
+  <si>
+    <t>RCTB41.SA^K06</t>
+  </si>
+  <si>
+    <t>RCTB42</t>
+  </si>
+  <si>
+    <t>RCTB42.SA^I06</t>
+  </si>
+  <si>
+    <t>RDNI3</t>
+  </si>
+  <si>
+    <t>RDNI3.SA</t>
+  </si>
+  <si>
+    <t>REDE3</t>
+  </si>
+  <si>
+    <t>REDE3.SA</t>
+  </si>
+  <si>
+    <t>REDE4</t>
+  </si>
+  <si>
+    <t>REDE4.SA^G17</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>RENT3.SA</t>
+  </si>
+  <si>
+    <t>RLOG3</t>
+  </si>
+  <si>
+    <t>RLOG3.SA</t>
+  </si>
+  <si>
+    <t>RNEW3</t>
+  </si>
+  <si>
+    <t>RNEW3.SA</t>
+  </si>
+  <si>
+    <t>RNEW4</t>
+  </si>
+  <si>
+    <t>RNEW4.SA</t>
+  </si>
+  <si>
+    <t>ROMI3</t>
+  </si>
+  <si>
+    <t>ROMI3.SA</t>
+  </si>
+  <si>
+    <t>ROMI4</t>
+  </si>
+  <si>
+    <t>ROMI4.SA^C07</t>
+  </si>
+  <si>
+    <t>RPAD3</t>
+  </si>
+  <si>
+    <t>RPAD3.SA</t>
+  </si>
+  <si>
+    <t>RPMG3</t>
+  </si>
+  <si>
+    <t>RPMG3.SA</t>
+  </si>
+  <si>
+    <t>RPMG4</t>
+  </si>
+  <si>
+    <t>RPMG4.SA^L14</t>
+  </si>
+  <si>
+    <t>RSID3</t>
+  </si>
+  <si>
+    <t>RSID3.SA</t>
+  </si>
+  <si>
+    <t>RSUL4</t>
+  </si>
+  <si>
+    <t>RSUL4.SA</t>
+  </si>
+  <si>
+    <t>SANB3</t>
+  </si>
+  <si>
+    <t>SANB3.SA</t>
+  </si>
+  <si>
+    <t>SANB4</t>
+  </si>
+  <si>
+    <t>SANB4.SA</t>
+  </si>
+  <si>
+    <t>SAPR3</t>
+  </si>
+  <si>
+    <t>SAPR3.SA</t>
+  </si>
+  <si>
+    <t>SAPR4</t>
+  </si>
+  <si>
+    <t>SAPR4.SA</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>SBSP3.SA</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>SBUB34.SA</t>
+  </si>
+  <si>
+    <t>SCAR3</t>
+  </si>
+  <si>
+    <t>SCAR3.SA</t>
+  </si>
+  <si>
+    <t>SCAR4</t>
+  </si>
+  <si>
+    <t>SCAR4.SA^H06</t>
+  </si>
+  <si>
+    <t>SEER3</t>
+  </si>
+  <si>
+    <t>SEER3.SA</t>
+  </si>
+  <si>
+    <t>SGPS3</t>
+  </si>
+  <si>
+    <t>SGPS3.SA</t>
+  </si>
+  <si>
+    <t>SHOW3</t>
+  </si>
+  <si>
+    <t>SHOW3.SA</t>
+  </si>
+  <si>
+    <t>SHUL4</t>
+  </si>
+  <si>
+    <t>SHUL4.SA</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t>SLCE3.SA</t>
+  </si>
+  <si>
+    <t>SLED3</t>
+  </si>
+  <si>
+    <t>SLED3.SA</t>
+  </si>
+  <si>
+    <t>SLED4</t>
+  </si>
+  <si>
+    <t>SLED4.SA</t>
+  </si>
+  <si>
+    <t>SMLS3</t>
+  </si>
+  <si>
+    <t>SMLS3.SA</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>SMTO3.SA</t>
+  </si>
+  <si>
+    <t>SNSY5</t>
+  </si>
+  <si>
+    <t>SNSY5.SA</t>
+  </si>
+  <si>
+    <t>SOND3</t>
+  </si>
+  <si>
+    <t>SOND3.SA</t>
+  </si>
+  <si>
+    <t>SPRI3</t>
+  </si>
+  <si>
+    <t>SPRI3.SA</t>
+  </si>
+  <si>
+    <t>STBP3</t>
+  </si>
+  <si>
+    <t>STBP3.SA</t>
+  </si>
+  <si>
+    <t>SUBA3</t>
+  </si>
+  <si>
+    <t>SUBA3.SA^H07</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>SUZB3.SA</t>
+  </si>
+  <si>
+    <t>SUZB5</t>
+  </si>
+  <si>
+    <t>SUZB5.SA^K17</t>
+  </si>
+  <si>
+    <t>TAEE3</t>
+  </si>
+  <si>
+    <t>TAEE3.SA</t>
+  </si>
+  <si>
+    <t>TAEE4</t>
+  </si>
+  <si>
+    <t>TAEE4.SA</t>
+  </si>
+  <si>
+    <t>TBLE6</t>
+  </si>
+  <si>
+    <t>TBLE6.SA^H05</t>
+  </si>
+  <si>
+    <t>TCNO3</t>
+  </si>
+  <si>
+    <t>TCNO3.SA</t>
+  </si>
+  <si>
+    <t>TCNO4</t>
+  </si>
+  <si>
+    <t>TCNO4.SA</t>
+  </si>
+  <si>
+    <t>TCSA3</t>
+  </si>
+  <si>
+    <t>TCSA3.SA</t>
+  </si>
+  <si>
+    <t>TCSL4</t>
+  </si>
+  <si>
+    <t>TCSL4.SA^H11</t>
+  </si>
+  <si>
+    <t>TECN3</t>
+  </si>
+  <si>
+    <t>TECN3.SA</t>
+  </si>
+  <si>
+    <t>TEKA3</t>
+  </si>
+  <si>
+    <t>TEKA3.SA</t>
+  </si>
+  <si>
+    <t>TEKA4</t>
+  </si>
+  <si>
+    <t>TEKA4.SA</t>
+  </si>
+  <si>
+    <t>TELB3</t>
+  </si>
+  <si>
+    <t>TELB3.SA</t>
+  </si>
+  <si>
+    <t>TELB4</t>
+  </si>
+  <si>
+    <t>TELB4.SA</t>
+  </si>
+  <si>
+    <t>TEND3</t>
+  </si>
+  <si>
+    <t>TEND3.SA</t>
+  </si>
+  <si>
+    <t>TEPR3</t>
+  </si>
+  <si>
+    <t>TEPR30.SA^D00</t>
+  </si>
+  <si>
+    <t>TESA3</t>
+  </si>
+  <si>
+    <t>TESA3.SA</t>
+  </si>
+  <si>
+    <t>TEXA34</t>
+  </si>
+  <si>
+    <t>TEXA34.SA</t>
+  </si>
+  <si>
+    <t>TGMA3</t>
+  </si>
+  <si>
+    <t>TGMA3.SA</t>
+  </si>
+  <si>
+    <t>TIET3</t>
+  </si>
+  <si>
+    <t>TIET3.SA</t>
+  </si>
+  <si>
+    <t>TIET4</t>
+  </si>
+  <si>
+    <t>TIET4.SA</t>
+  </si>
+  <si>
+    <t>TIMP3</t>
+  </si>
+  <si>
+    <t>TIMP3.SA</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>TOTS3.SA</t>
+  </si>
+  <si>
+    <t>TPIS3</t>
+  </si>
+  <si>
+    <t>TPIS3.SA</t>
+  </si>
+  <si>
+    <t>TRIS3</t>
+  </si>
+  <si>
+    <t>TRIS3.SA</t>
+  </si>
+  <si>
+    <t>TRPL3</t>
+  </si>
+  <si>
+    <t>TRPL3.SA</t>
+  </si>
+  <si>
+    <t>TRPL4</t>
+  </si>
+  <si>
+    <t>TRPL4.SA</t>
+  </si>
+  <si>
+    <t>TUPY3</t>
+  </si>
+  <si>
+    <t>TUPY3.SA</t>
+  </si>
+  <si>
+    <t>TXRX3</t>
+  </si>
+  <si>
+    <t>TXRX3.SA</t>
+  </si>
+  <si>
+    <t>TXRX4</t>
+  </si>
+  <si>
+    <t>TXRX4.SA</t>
+  </si>
+  <si>
+    <t>UCAS3</t>
+  </si>
+  <si>
+    <t>UCAS3.SA</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>UGPA3.SA</t>
+  </si>
+  <si>
+    <t>UGPA4</t>
+  </si>
+  <si>
+    <t>UGPA4.SA^H11</t>
+  </si>
+  <si>
+    <t>UNIP3</t>
+  </si>
+  <si>
+    <t>UNIP3.SA</t>
+  </si>
+  <si>
+    <t>UNIP5</t>
+  </si>
+  <si>
+    <t>UNIP5.SA</t>
+  </si>
+  <si>
+    <t>UNIP6</t>
+  </si>
+  <si>
+    <t>UNIP6.SA</t>
+  </si>
+  <si>
+    <t>USIM3</t>
+  </si>
+  <si>
+    <t>USIM3.SA</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>USIM5.SA</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>VALE3.SA</t>
+  </si>
+  <si>
+    <t>VALE5</t>
+  </si>
+  <si>
+    <t>VALE5.SA^K17</t>
+  </si>
+  <si>
+    <t>VERZ34</t>
+  </si>
+  <si>
+    <t>VERZ34.SA</t>
+  </si>
+  <si>
+    <t>VISA34</t>
+  </si>
+  <si>
+    <t>VISA34.SA</t>
+  </si>
+  <si>
+    <t>VIVA3</t>
+  </si>
+  <si>
+    <t>VIVA3.SA</t>
+  </si>
+  <si>
+    <t>VIVR3</t>
+  </si>
+  <si>
+    <t>VIVR3.SA</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>VIVT3.SA</t>
+  </si>
+  <si>
+    <t>VIVT4</t>
+  </si>
+  <si>
+    <t>VIVT4.SA</t>
+  </si>
+  <si>
+    <t>VLID3</t>
+  </si>
+  <si>
+    <t>VLID3.SA</t>
+  </si>
+  <si>
+    <t>VULC3</t>
+  </si>
+  <si>
+    <t>VULC3.SA</t>
+  </si>
+  <si>
+    <t>VVAR3</t>
+  </si>
+  <si>
+    <t>VVAR3.SA</t>
+  </si>
+  <si>
+    <t>VVAR4</t>
+  </si>
+  <si>
+    <t>VVAR4S.SA^K18</t>
+  </si>
+  <si>
+    <t>WALM34</t>
+  </si>
+  <si>
+    <t>WALM34.SA</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>WEGE3.SA</t>
+  </si>
+  <si>
+    <t>WEGE4</t>
+  </si>
+  <si>
+    <t>WEGE4.SA^F07</t>
+  </si>
+  <si>
+    <t>WFCO34</t>
+  </si>
+  <si>
+    <t>WFCO34.SA</t>
+  </si>
+  <si>
+    <t>WHRL3</t>
+  </si>
+  <si>
+    <t>WHRL3.SA</t>
+  </si>
+  <si>
+    <t>WHRL4</t>
+  </si>
+  <si>
+    <t>WHRL4.SA</t>
+  </si>
+  <si>
+    <t>WIZS3</t>
+  </si>
+  <si>
+    <t>WIZS3.SA</t>
+  </si>
+  <si>
+    <t>WLMM4</t>
+  </si>
+  <si>
+    <t>WLMM4.SA</t>
+  </si>
+  <si>
+    <t>WSON33</t>
+  </si>
+  <si>
+    <t>WSON33.SA</t>
+  </si>
+  <si>
+    <t>ELPL3.SA^K19</t>
+  </si>
+  <si>
+    <t>FJTA4</t>
+  </si>
+  <si>
+    <t>TASA4.SA</t>
+  </si>
+  <si>
+    <t>TOYB4</t>
+  </si>
+  <si>
+    <t>TOYB4.SA^H19</t>
+  </si>
+  <si>
+    <t>FJTA3</t>
+  </si>
+  <si>
+    <t>TASA3.SA</t>
+  </si>
+  <si>
+    <t>NATU3</t>
+  </si>
+  <si>
+    <t>ESTC3</t>
+  </si>
+  <si>
+    <t>YDUQ3.SA</t>
+  </si>
+  <si>
+    <t>MAGG3</t>
+  </si>
+  <si>
+    <t>MAGG3.SA^A19</t>
+  </si>
+  <si>
+    <t>OGXP3</t>
+  </si>
+  <si>
+    <t>OGXP3.SA^A19</t>
+  </si>
+  <si>
+    <t>FIBR3</t>
+  </si>
+  <si>
+    <t>FIBR3.SA^A19</t>
+  </si>
+  <si>
+    <t>TRPN3</t>
+  </si>
+  <si>
+    <t>TRPN3.SA^G19</t>
+  </si>
+  <si>
+    <t>ALSC3</t>
+  </si>
+  <si>
+    <t>ALSC3.SA^H19</t>
+  </si>
+  <si>
+    <t>BRIN3</t>
+  </si>
+  <si>
+    <t>MPLU3</t>
+  </si>
+  <si>
+    <t>MPLU3.SA^D19</t>
+  </si>
+  <si>
+    <t>BPHA3</t>
+  </si>
+  <si>
+    <t>BPHA3.SA^F19</t>
+  </si>
+  <si>
+    <t>CELP3</t>
+  </si>
+  <si>
+    <t>EQPA3.SA</t>
+  </si>
+  <si>
+    <t>QGEP3</t>
+  </si>
+  <si>
+    <t>SSBR3</t>
+  </si>
+  <si>
+    <t>CCXC3</t>
+  </si>
+  <si>
+    <t>CCXC3.SA^A20</t>
+  </si>
+  <si>
+    <t>KROT3</t>
+  </si>
+  <si>
+    <t>SNSL3</t>
+  </si>
+  <si>
+    <t>SQIA3.SA</t>
+  </si>
+  <si>
+    <t>SEDU3</t>
+  </si>
+  <si>
+    <t>SEDU3.SA^E19</t>
+  </si>
+  <si>
+    <t>LIQO3</t>
+  </si>
+  <si>
+    <t>ATMP3.SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1614,16 +3079,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +3132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1679,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +3156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +3164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +3172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1711,7 +3180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +3188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +3196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1735,7 +3204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +3212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +3220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +3228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1767,7 +3236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +3244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1783,7 +3252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +3260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1799,7 +3268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,7 +3276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +3284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1823,7 +3292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1831,7 +3300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1839,7 +3308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1847,7 +3316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1855,7 +3324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +3332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1871,7 +3340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1879,7 +3348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1887,7 +3356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1895,7 +3364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +3372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1911,7 +3380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +3388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +3396,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1935,7 +3404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1943,7 +3412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1951,7 +3420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1959,7 +3428,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1967,7 +3436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1975,7 +3444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1983,7 +3452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1991,7 +3460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1999,7 +3468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -2007,7 +3476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -2015,7 +3484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2023,7 +3492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2031,7 +3500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2039,7 +3508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -2047,7 +3516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2055,7 +3524,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -2063,7 +3532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2071,7 +3540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2079,7 +3548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2087,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2095,7 +3564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2103,7 +3572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2111,7 +3580,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2119,7 +3588,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2127,7 +3596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2135,7 +3604,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2143,7 +3612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2151,7 +3620,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -2159,7 +3628,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -2167,7 +3636,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -2175,7 +3644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -2183,7 +3652,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -2191,7 +3660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -2199,7 +3668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -2207,7 +3676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -2215,7 +3684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -2223,7 +3692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -2231,7 +3700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -2239,7 +3708,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2247,7 +3716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -2255,7 +3724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -2263,7 +3732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -2271,7 +3740,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2279,7 +3748,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -2287,7 +3756,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -2295,7 +3764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -2303,7 +3772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -2311,7 +3780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2319,7 +3788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -2327,7 +3796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -2335,7 +3804,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -2343,7 +3812,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2351,7 +3820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -2359,7 +3828,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2367,7 +3836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -2375,7 +3844,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -2383,7 +3852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -2391,7 +3860,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -2399,7 +3868,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -2407,7 +3876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -2415,7 +3884,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -2423,7 +3892,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2431,7 +3900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2439,7 +3908,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -2447,7 +3916,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -2455,7 +3924,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -2463,7 +3932,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2471,7 +3940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -2479,7 +3948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -2487,7 +3956,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -2495,7 +3964,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2503,7 +3972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -2511,7 +3980,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2519,7 +3988,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2527,7 +3996,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2535,7 +4004,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2543,7 +4012,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2551,7 +4020,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2559,7 +4028,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2567,7 +4036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2575,7 +4044,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2583,7 +4052,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2591,7 +4060,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -2599,7 +4068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -2607,7 +4076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -2615,7 +4084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -2623,7 +4092,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -2631,7 +4100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -2639,7 +4108,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -2647,7 +4116,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -2655,7 +4124,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2663,7 +4132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2671,7 +4140,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2679,7 +4148,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -2687,7 +4156,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2695,7 +4164,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2703,7 +4172,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2711,7 +4180,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2719,7 +4188,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2727,7 +4196,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -2735,7 +4204,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>278</v>
       </c>
@@ -2743,7 +4212,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>280</v>
       </c>
@@ -2751,7 +4220,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>282</v>
       </c>
@@ -2759,7 +4228,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>284</v>
       </c>
@@ -2767,7 +4236,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -2775,7 +4244,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>288</v>
       </c>
@@ -2783,7 +4252,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -2791,7 +4260,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -2799,7 +4268,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
@@ -2807,7 +4276,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -2815,7 +4284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
@@ -2823,7 +4292,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
@@ -2831,7 +4300,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -2839,7 +4308,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -2847,7 +4316,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>306</v>
       </c>
@@ -2855,7 +4324,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>308</v>
       </c>
@@ -2863,7 +4332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>310</v>
       </c>
@@ -2871,7 +4340,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>312</v>
       </c>
@@ -2879,7 +4348,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>314</v>
       </c>
@@ -2887,7 +4356,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>316</v>
       </c>
@@ -2895,7 +4364,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>318</v>
       </c>
@@ -2903,7 +4372,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>320</v>
       </c>
@@ -2911,7 +4380,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>322</v>
       </c>
@@ -2919,7 +4388,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>324</v>
       </c>
@@ -2927,7 +4396,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -2935,7 +4404,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>328</v>
       </c>
@@ -2943,7 +4412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -2951,7 +4420,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>332</v>
       </c>
@@ -2959,7 +4428,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>334</v>
       </c>
@@ -2967,7 +4436,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>336</v>
       </c>
@@ -2975,7 +4444,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
@@ -2983,7 +4452,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -2991,7 +4460,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>342</v>
       </c>
@@ -2999,7 +4468,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>344</v>
       </c>
@@ -3007,7 +4476,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>346</v>
       </c>
@@ -3015,7 +4484,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
@@ -3023,7 +4492,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>350</v>
       </c>
@@ -3031,7 +4500,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>352</v>
       </c>
@@ -3039,7 +4508,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -3047,7 +4516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>356</v>
       </c>
@@ -3055,7 +4524,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>358</v>
       </c>
@@ -3063,7 +4532,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>360</v>
       </c>
@@ -3071,7 +4540,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>362</v>
       </c>
@@ -3079,7 +4548,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
@@ -3087,7 +4556,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
@@ -3095,7 +4564,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
@@ -3103,7 +4572,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -3111,7 +4580,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>372</v>
       </c>
@@ -3119,7 +4588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>374</v>
       </c>
@@ -3127,7 +4596,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>376</v>
       </c>
@@ -3135,7 +4604,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
@@ -3143,7 +4612,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>380</v>
       </c>
@@ -3151,7 +4620,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>382</v>
       </c>
@@ -3159,7 +4628,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -3167,7 +4636,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>386</v>
       </c>
@@ -3175,7 +4644,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>388</v>
       </c>
@@ -3183,7 +4652,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>390</v>
       </c>
@@ -3191,7 +4660,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>392</v>
       </c>
@@ -3199,7 +4668,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>394</v>
       </c>
@@ -3207,7 +4676,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>396</v>
       </c>
@@ -3215,7 +4684,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>398</v>
       </c>
@@ -3223,7 +4692,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
@@ -3231,7 +4700,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>402</v>
       </c>
@@ -3239,7 +4708,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
@@ -3247,7 +4716,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>406</v>
       </c>
@@ -3255,7 +4724,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -3263,7 +4732,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
@@ -3271,7 +4740,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>412</v>
       </c>
@@ -3279,7 +4748,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>414</v>
       </c>
@@ -3287,7 +4756,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>416</v>
       </c>
@@ -3295,7 +4764,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -3303,7 +4772,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>420</v>
       </c>
@@ -3311,224 +4780,2444 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://aalr3.sa/"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://aapl34.sa/"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://abcb3.sa/"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://abcb4.sa/"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://abev3.sa/"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://adhm3.sa/"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://aflt3.sa/"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://agro3.sa/"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://aheb3.sa/"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://alll3.sa/"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://alll4.sa/"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://alpa3.sa/"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://alpa4.sa/"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://also3.sa/"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://alup4.sa/"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://amar3.sa/"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://amzo34.sa/"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://anim3.sa/"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://aper3.sa/"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://arzz3.sa/"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://atom3.sa/"/>
-    <hyperlink ref="B23" r:id="rId22" display="http://attb34.sa/"/>
-    <hyperlink ref="B24" r:id="rId23" display="http://azev3.sa/"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://azev4.sa/"/>
-    <hyperlink ref="B26" r:id="rId25" display="http://azul4.sa/"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://b3sa3.sa/"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://bahi4.sa/"/>
-    <hyperlink ref="B29" r:id="rId28" display="http://balm3.sa/"/>
-    <hyperlink ref="B30" r:id="rId29" display="http://bauh4.sa/"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://baza3.sa/"/>
-    <hyperlink ref="B32" r:id="rId31" display="http://bbas12.sa/"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://bbas3.sa/"/>
-    <hyperlink ref="B34" r:id="rId33" display="http://bbas4.sa/"/>
-    <hyperlink ref="B35" r:id="rId34" display="http://bbdc3.sa/"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://bbdc4.sa/"/>
-    <hyperlink ref="B37" r:id="rId36" display="http://bbrk3.sa/"/>
-    <hyperlink ref="B38" r:id="rId37" display="http://bbse3.sa/"/>
-    <hyperlink ref="B39" r:id="rId38" display="http://bdll3.sa/"/>
-    <hyperlink ref="B40" r:id="rId39" display="http://bdll4.sa/"/>
-    <hyperlink ref="B41" r:id="rId40" display="http://beef3.sa/"/>
-    <hyperlink ref="B42" r:id="rId41" display="http://bees3.sa/"/>
-    <hyperlink ref="B43" r:id="rId42" display="http://bees4.sa/"/>
-    <hyperlink ref="B44" r:id="rId43" display="http://berk34.sa/"/>
-    <hyperlink ref="B45" r:id="rId44" display="http://bgip3.sa/"/>
-    <hyperlink ref="B46" r:id="rId45" display="http://bgip4.sa/"/>
-    <hyperlink ref="B47" r:id="rId46" display="http://biom3.sa/"/>
-    <hyperlink ref="B48" r:id="rId47" display="http://bkbr3.sa/"/>
-    <hyperlink ref="B49" r:id="rId48" display="http://bmeb3.sa/"/>
-    <hyperlink ref="B50" r:id="rId49" display="http://bmeb4.sa/"/>
-    <hyperlink ref="B51" r:id="rId50" display="http://bmin3.sa/"/>
-    <hyperlink ref="B52" r:id="rId51" display="http://bmin4.sa/"/>
-    <hyperlink ref="B53" r:id="rId52" display="http://bmks3.sa/"/>
-    <hyperlink ref="B54" r:id="rId53" display="http://bnbr3.sa/"/>
-    <hyperlink ref="B55" r:id="rId54" display="http://bnbr4.sa/"/>
-    <hyperlink ref="B56" r:id="rId55" display="http://boac34.sa/"/>
-    <hyperlink ref="B57" r:id="rId56" display="http://bobr3.sa/"/>
-    <hyperlink ref="B58" r:id="rId57" display="http://bobr4.sa/"/>
-    <hyperlink ref="B59" r:id="rId58" display="http://bpan4.sa/"/>
-    <hyperlink ref="B60" r:id="rId59" display="http://brap3.sa/"/>
-    <hyperlink ref="B61" r:id="rId60" display="http://brap4.sa/"/>
-    <hyperlink ref="B62" r:id="rId61" display="http://brdt3.sa/"/>
-    <hyperlink ref="B63" r:id="rId62" display="http://brdt4.sa/"/>
-    <hyperlink ref="B64" r:id="rId63" display="http://brfs3.sa/"/>
-    <hyperlink ref="B65" r:id="rId64" display="http://briv3.sa/"/>
-    <hyperlink ref="B66" r:id="rId65" display="http://briv4.sa/"/>
-    <hyperlink ref="B67" r:id="rId66" display="http://brkm3.sa/"/>
-    <hyperlink ref="B68" r:id="rId67" display="http://brkm5.sa/"/>
-    <hyperlink ref="B69" r:id="rId68" display="http://brml3.sa/"/>
-    <hyperlink ref="B70" r:id="rId69" display="http://brpr3.sa/"/>
-    <hyperlink ref="B71" r:id="rId70" display="http://brsr3.sa/"/>
-    <hyperlink ref="B72" r:id="rId71" display="http://brsr6.sa/"/>
-    <hyperlink ref="B73" r:id="rId72" display="http://brto34.sa/"/>
-    <hyperlink ref="B74" r:id="rId73" display="http://bsev3.sa/"/>
-    <hyperlink ref="B75" r:id="rId74" display="http://bsli3.sa/"/>
-    <hyperlink ref="B76" r:id="rId75" display="http://btow3.sa/"/>
-    <hyperlink ref="B77" r:id="rId76" display="http://bttl3.sa/"/>
-    <hyperlink ref="B78" r:id="rId77" display="http://camb3.sa/"/>
-    <hyperlink ref="B79" r:id="rId78" display="http://camb4.sa/"/>
-    <hyperlink ref="B80" r:id="rId79" display="http://caml3.sa/"/>
-    <hyperlink ref="B81" r:id="rId80" display="http://card3.sa/"/>
-    <hyperlink ref="B82" r:id="rId81" display="http://cbee3.sa/"/>
-    <hyperlink ref="B83" r:id="rId82" display="http://ccpr3.sa/"/>
-    <hyperlink ref="B84" r:id="rId83" display="http://ccro3.sa/"/>
-    <hyperlink ref="B85" r:id="rId84" display="http://ceab3.sa/"/>
-    <hyperlink ref="B86" r:id="rId85" display="http://cebr3.sa/"/>
-    <hyperlink ref="B87" r:id="rId86" display="http://cedo3.sa/"/>
-    <hyperlink ref="B88" r:id="rId87" display="http://ceeb3.sa/"/>
-    <hyperlink ref="B89" r:id="rId88" display="http://cegr3.sa/"/>
-    <hyperlink ref="B90" r:id="rId89" display="http://cepe3.sa/"/>
-    <hyperlink ref="B91" r:id="rId90" display="http://cesp3.sa/"/>
-    <hyperlink ref="B92" r:id="rId91" display="http://cesp5.sa/"/>
-    <hyperlink ref="B93" r:id="rId92" display="http://cesp6.sa/"/>
-    <hyperlink ref="B94" r:id="rId93" display="http://cgas3.sa/"/>
-    <hyperlink ref="B95" r:id="rId94" display="http://cgas5.sa/"/>
-    <hyperlink ref="B96" r:id="rId95" display="http://cgra3.sa/"/>
-    <hyperlink ref="B97" r:id="rId96" display="http://cgra4.sa/"/>
-    <hyperlink ref="B98" r:id="rId97" display="http://chvx34.sa/"/>
-    <hyperlink ref="B99" r:id="rId98" display="http://ciel3.sa/"/>
-    <hyperlink ref="B100" r:id="rId99" display="http://clsc3.sa/"/>
-    <hyperlink ref="B101" r:id="rId100" display="http://clsc4.sa/"/>
-    <hyperlink ref="B102" r:id="rId101" display="http://clsc6.sa/"/>
-    <hyperlink ref="B103" r:id="rId102" display="http://cmcs34.sa/"/>
-    <hyperlink ref="B104" r:id="rId103" display="http://cmig3.sa/"/>
-    <hyperlink ref="B105" r:id="rId104" display="http://cmig4.sa/"/>
-    <hyperlink ref="B106" r:id="rId105" display="http://cnto3.sa/"/>
-    <hyperlink ref="B107" r:id="rId106" display="http://coce3.sa/"/>
-    <hyperlink ref="B108" r:id="rId107" display="http://coce5.sa/"/>
-    <hyperlink ref="B109" r:id="rId108" display="http://cogn3.sa/"/>
-    <hyperlink ref="B110" r:id="rId109" display="http://corr3.sa/"/>
-    <hyperlink ref="B111" r:id="rId110" display="http://cowc34.sa/"/>
-    <hyperlink ref="B112" r:id="rId111" display="http://cpfe3.sa/"/>
-    <hyperlink ref="B113" r:id="rId112" display="http://cple3.sa/"/>
-    <hyperlink ref="B114" r:id="rId113" display="http://cple6.sa/"/>
-    <hyperlink ref="B115" r:id="rId114" display="http://cpre3.sa/"/>
-    <hyperlink ref="B116" r:id="rId115" display="http://crde3.sa/"/>
-    <hyperlink ref="B117" r:id="rId116" display="http://crfb3.sa/"/>
-    <hyperlink ref="B118" r:id="rId117" display="http://criv3.sa/"/>
-    <hyperlink ref="B119" r:id="rId118" display="http://criv4.sa/"/>
-    <hyperlink ref="B120" r:id="rId119" display="http://crpg3.sa/"/>
-    <hyperlink ref="B121" r:id="rId120" display="http://crpg5.sa/"/>
-    <hyperlink ref="B122" r:id="rId121" display="http://crpg6.sa/"/>
-    <hyperlink ref="B123" r:id="rId122" display="http://csab3.sa/"/>
-    <hyperlink ref="B124" r:id="rId123" display="http://csan3.sa/"/>
-    <hyperlink ref="B125" r:id="rId124" display="http://csmg3.sa/"/>
-    <hyperlink ref="B126" r:id="rId125" display="http://csna3.sa/"/>
-    <hyperlink ref="B127" r:id="rId126" display="http://csrn3.sa/"/>
-    <hyperlink ref="B128" r:id="rId127" display="http://ctax4.sa/"/>
-    <hyperlink ref="B129" r:id="rId128" display="http://ctgp34.sa/"/>
-    <hyperlink ref="B130" r:id="rId129" display="http://ctka3.sa/"/>
-    <hyperlink ref="B131" r:id="rId130" display="http://ctka4.sa/"/>
-    <hyperlink ref="B132" r:id="rId131" display="http://ctnm3.sa/"/>
-    <hyperlink ref="B133" r:id="rId132" display="http://ctnm4.sa/"/>
-    <hyperlink ref="B134" r:id="rId133" display="http://ctsa3.sa/"/>
-    <hyperlink ref="B135" r:id="rId134" display="http://ctsa4.sa/"/>
-    <hyperlink ref="B136" r:id="rId135" display="http://cvcb3.sa/"/>
-    <hyperlink ref="B137" r:id="rId136" display="http://cyre3.sa/"/>
-    <hyperlink ref="B138" r:id="rId137" display="http://czlt33.sa/"/>
-    <hyperlink ref="B139" r:id="rId138" display="http://dagb33.sa/"/>
-    <hyperlink ref="B140" r:id="rId139" display="http://dasa3.sa/"/>
-    <hyperlink ref="B141" r:id="rId140" display="http://dirr3.sa/"/>
-    <hyperlink ref="B142" r:id="rId141" display="http://disb34.sa/"/>
-    <hyperlink ref="B143" r:id="rId142" display="http://dmmo3.sa/"/>
-    <hyperlink ref="B144" r:id="rId143" display="http://dohl3.sa/"/>
-    <hyperlink ref="B145" r:id="rId144" display="http://dtcy3.sa/"/>
-    <hyperlink ref="B146" r:id="rId145" display="http://dtex3.sa/"/>
-    <hyperlink ref="B147" r:id="rId146" display="http://ealt3.sa/"/>
-    <hyperlink ref="B148" r:id="rId147" display="http://ealt4.sa/"/>
-    <hyperlink ref="B149" r:id="rId148" display="http://ecor3.sa/"/>
-    <hyperlink ref="B150" r:id="rId149" display="http://egie3.sa/"/>
-    <hyperlink ref="B151" r:id="rId150" display="http://ektr3.sa/"/>
-    <hyperlink ref="B152" r:id="rId151" display="http://ektr4.sa/"/>
-    <hyperlink ref="B153" r:id="rId152" display="http://elek3.sa/"/>
-    <hyperlink ref="B154" r:id="rId153" display="http://elek4.sa/"/>
-    <hyperlink ref="B155" r:id="rId154" display="http://elet3.sa/"/>
-    <hyperlink ref="B156" r:id="rId155" display="http://elet6.sa/"/>
-    <hyperlink ref="B157" r:id="rId156" display="http://emae4.sa/"/>
-    <hyperlink ref="B158" r:id="rId157" display="http://embr3.sa/"/>
-    <hyperlink ref="B159" r:id="rId158" display="http://embr4.sa/"/>
-    <hyperlink ref="B160" r:id="rId159" display="http://enat3.sa/"/>
-    <hyperlink ref="B161" r:id="rId160" display="http://enbr3.sa/"/>
-    <hyperlink ref="B162" r:id="rId161" display="http://enev3.sa/"/>
-    <hyperlink ref="B163" r:id="rId162" display="http://engi3.sa/"/>
-    <hyperlink ref="B164" r:id="rId163" display="http://engi4.sa/"/>
-    <hyperlink ref="B165" r:id="rId164" display="http://enmt3.sa/"/>
-    <hyperlink ref="B166" r:id="rId165" display="http://eqtl3.sa/"/>
-    <hyperlink ref="B167" r:id="rId166" display="http://estr3.sa/"/>
-    <hyperlink ref="B168" r:id="rId167" display="http://estr4.sa/"/>
-    <hyperlink ref="B169" r:id="rId168" display="http://eter3.sa/"/>
-    <hyperlink ref="B170" r:id="rId169" display="http://euca3.sa/"/>
-    <hyperlink ref="B171" r:id="rId170" display="http://euca4.sa/"/>
-    <hyperlink ref="B172" r:id="rId171" display="http://even3.sa/"/>
-    <hyperlink ref="B173" r:id="rId172" display="http://exxo34.sa/"/>
-    <hyperlink ref="B174" r:id="rId173" display="http://eztc3.sa/"/>
-    <hyperlink ref="B175" r:id="rId174" display="http://fbok34.sa/"/>
-    <hyperlink ref="B176" r:id="rId175" display="http://fesa3.sa/"/>
-    <hyperlink ref="B177" r:id="rId176" display="http://fesa4.sa/"/>
-    <hyperlink ref="B178" r:id="rId177" display="http://fher3.sa/"/>
-    <hyperlink ref="B179" r:id="rId178" display="http://flry3.sa/"/>
-    <hyperlink ref="B180" r:id="rId179" display="http://fras3.sa/"/>
-    <hyperlink ref="B181" r:id="rId180" display="http://fras4.sa/"/>
-    <hyperlink ref="B182" r:id="rId181" display="http://frio3.sa/"/>
-    <hyperlink ref="B183" r:id="rId182" display="http://frta3.sa/"/>
-    <hyperlink ref="B184" r:id="rId183" display="http://gbio33.sa/"/>
-    <hyperlink ref="B185" r:id="rId184" display="http://geoo34.sa/"/>
-    <hyperlink ref="B186" r:id="rId185" display="http://gepa3.sa/"/>
-    <hyperlink ref="B187" r:id="rId186" display="http://gfsa3.sa/"/>
-    <hyperlink ref="B188" r:id="rId187" display="http://ggbr3.sa/"/>
-    <hyperlink ref="B189" r:id="rId188" display="http://ggbr4.sa/"/>
-    <hyperlink ref="B190" r:id="rId189" display="http://glob4.sa/"/>
-    <hyperlink ref="B191" r:id="rId190" display="http://gndi3.sa/"/>
-    <hyperlink ref="B192" r:id="rId191" display="http://goau3.sa/"/>
-    <hyperlink ref="B193" r:id="rId192" display="http://goau4.sa/"/>
-    <hyperlink ref="B194" r:id="rId193" display="http://gogl34.sa/"/>
-    <hyperlink ref="B195" r:id="rId194" display="http://gogl35.sa/"/>
-    <hyperlink ref="B196" r:id="rId195" display="http://goll4.sa/"/>
-    <hyperlink ref="B197" r:id="rId196" display="http://gpcp3.sa/"/>
-    <hyperlink ref="B198" r:id="rId197" display="http://gpiv33.sa/"/>
-    <hyperlink ref="B199" r:id="rId198" display="http://grnd3.sa/"/>
-    <hyperlink ref="B200" r:id="rId199" display="http://gsgi34.sa/"/>
-    <hyperlink ref="B201" r:id="rId200" display="http://gshp3.sa/"/>
-    <hyperlink ref="B202" r:id="rId201" display="http://guar3.sa/"/>
-    <hyperlink ref="B203" r:id="rId202" display="http://guar4.sa/"/>
-    <hyperlink ref="B204" r:id="rId203" display="http://haga3.sa/"/>
-    <hyperlink ref="B205" r:id="rId204" display="http://haga4.sa/"/>
-    <hyperlink ref="B206" r:id="rId205" display="http://hapv3.sa/"/>
-    <hyperlink ref="B207" r:id="rId206" display="http://hbor3.sa/"/>
-    <hyperlink ref="B208" r:id="rId207" display="http://hbts5.sa/"/>
-    <hyperlink ref="B209" r:id="rId208" display="http://heta3.sa/"/>
-    <hyperlink ref="B210" r:id="rId209" display="http://heta4.sa/"/>
-    <hyperlink ref="B211" r:id="rId210" display="http://hgtx3.sa/"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://aalr3.sa/" xr:uid="{3F1CB530-9410-0D44-8BF2-0CE06BE7A064}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://aapl34.sa/" xr:uid="{4748C8CD-CAD3-C143-89AE-6D64F48DFF0D}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://abcb3.sa/" xr:uid="{D5F54BB0-012C-2E40-B8A3-89084F122D26}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://abcb4.sa/" xr:uid="{03B3B82A-A444-6640-817D-636687365126}"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://abev3.sa/" xr:uid="{7B9FB38C-EB60-2047-90DB-DCEDA1EF99EE}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://adhm3.sa/" xr:uid="{EFFACA4F-AF7E-674F-85A1-F9D5FBFF6D9A}"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://aflt3.sa/" xr:uid="{C17A0D26-34C3-3247-A0BC-3A2AC386935E}"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://agro3.sa/" xr:uid="{33EF2D6B-C5E7-154E-AF8B-7840CAE60E16}"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://aheb3.sa/" xr:uid="{48AE298B-50F0-D444-8DB9-C00A4B470A25}"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://alll3.sa/" xr:uid="{CBE8DC90-67D0-3344-8694-CAD171C3CDC6}"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://alll4.sa/" xr:uid="{1C6D188F-2BB0-F04D-94AA-DCABB460D0C1}"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://alpa3.sa/" xr:uid="{E22892C3-96CF-D946-81AD-D406FA85E742}"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://alpa4.sa/" xr:uid="{69BD7F1B-4D23-6D48-849A-A638DE789A6D}"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://also3.sa/" xr:uid="{C35EFADC-6751-124E-BFBD-8BC4F2933F77}"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://alup4.sa/" xr:uid="{7C08B29B-1069-C742-8E26-76A9A00820C0}"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://amar3.sa/" xr:uid="{4E8CAFE1-2992-4943-91D3-AA292D7AA9AB}"/>
+    <hyperlink ref="B18" r:id="rId17" display="http://amzo34.sa/" xr:uid="{6C221B56-F7FB-EC42-92E8-A23DA80B8421}"/>
+    <hyperlink ref="B19" r:id="rId18" display="http://anim3.sa/" xr:uid="{E752DAD6-D182-B547-9C73-6CFFAC6D903E}"/>
+    <hyperlink ref="B20" r:id="rId19" display="http://aper3.sa/" xr:uid="{FB2BDC35-2699-4946-A2F3-D329296DE896}"/>
+    <hyperlink ref="B21" r:id="rId20" display="http://arzz3.sa/" xr:uid="{6F70F469-4EDB-0D4D-95F4-6D1CF8B227F2}"/>
+    <hyperlink ref="B22" r:id="rId21" display="http://atom3.sa/" xr:uid="{2645D7B9-16D4-5F41-AA7D-B4A0B8B3B992}"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://attb34.sa/" xr:uid="{6ADD9378-D725-E248-876D-BB938B6F2CB3}"/>
+    <hyperlink ref="B24" r:id="rId23" display="http://azev3.sa/" xr:uid="{C91B1596-D7BF-1D43-A820-F0C856600945}"/>
+    <hyperlink ref="B25" r:id="rId24" display="http://azev4.sa/" xr:uid="{0A5551BD-B588-884E-9B95-663250708151}"/>
+    <hyperlink ref="B26" r:id="rId25" display="http://azul4.sa/" xr:uid="{E37ADC83-7325-844E-B064-AE96D00859E6}"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://b3sa3.sa/" xr:uid="{9F4B8578-4DCD-5C49-A96B-29E9B934D9B1}"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://bahi4.sa/" xr:uid="{0FFD0CCD-A819-D046-8D50-3CFDEA05E737}"/>
+    <hyperlink ref="B29" r:id="rId28" display="http://balm3.sa/" xr:uid="{BA6752BF-6BB5-FE4B-8C02-B4DA98B7F37B}"/>
+    <hyperlink ref="B30" r:id="rId29" display="http://bauh4.sa/" xr:uid="{523C8958-B8A4-514F-B682-6444866DD27A}"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://baza3.sa/" xr:uid="{CBE4B4C0-C2C2-574C-95BA-CC0D205A5871}"/>
+    <hyperlink ref="B32" r:id="rId31" display="http://bbas12.sa/" xr:uid="{E98DC07E-D55F-7F4D-962D-DD247C470ECA}"/>
+    <hyperlink ref="B33" r:id="rId32" display="http://bbas3.sa/" xr:uid="{4C7DF748-694B-AE4B-A14F-46E2F1AA133A}"/>
+    <hyperlink ref="B34" r:id="rId33" display="http://bbas4.sa/" xr:uid="{A0162926-F7A3-D84F-9E0C-1A9DDB81FD5E}"/>
+    <hyperlink ref="B35" r:id="rId34" display="http://bbdc3.sa/" xr:uid="{BCEB7FAA-9080-8C4E-B075-D6FF327C9907}"/>
+    <hyperlink ref="B36" r:id="rId35" display="http://bbdc4.sa/" xr:uid="{A61A773D-183B-1F4E-83DE-DF23AC30872B}"/>
+    <hyperlink ref="B37" r:id="rId36" display="http://bbrk3.sa/" xr:uid="{5D00DC7B-ECC9-A348-A314-88BA901226FE}"/>
+    <hyperlink ref="B38" r:id="rId37" display="http://bbse3.sa/" xr:uid="{E9C73B0A-B467-D34D-9C01-849838321B83}"/>
+    <hyperlink ref="B39" r:id="rId38" display="http://bdll3.sa/" xr:uid="{586E067E-CED5-404E-8606-74490C4C816E}"/>
+    <hyperlink ref="B40" r:id="rId39" display="http://bdll4.sa/" xr:uid="{CB260441-6A3F-AE4A-817F-21C41E0C3C3D}"/>
+    <hyperlink ref="B41" r:id="rId40" display="http://beef3.sa/" xr:uid="{8709FE82-CE88-1049-9419-0C75F1EE970D}"/>
+    <hyperlink ref="B42" r:id="rId41" display="http://bees3.sa/" xr:uid="{E1A56305-C106-C847-BEA4-F3630F547801}"/>
+    <hyperlink ref="B43" r:id="rId42" display="http://bees4.sa/" xr:uid="{9445E5F0-F292-B241-8476-3394C26AC470}"/>
+    <hyperlink ref="B44" r:id="rId43" display="http://berk34.sa/" xr:uid="{95CCF185-E2F7-3540-AE9A-F38066720CD4}"/>
+    <hyperlink ref="B45" r:id="rId44" display="http://bgip3.sa/" xr:uid="{C022966E-FF79-4C49-9A65-1E1394A38BEF}"/>
+    <hyperlink ref="B46" r:id="rId45" display="http://bgip4.sa/" xr:uid="{C1531B23-867B-1644-A6DA-DF6EDF1CA049}"/>
+    <hyperlink ref="B47" r:id="rId46" display="http://biom3.sa/" xr:uid="{5B34ED7E-5726-D143-8D0F-432E74945507}"/>
+    <hyperlink ref="B48" r:id="rId47" display="http://bkbr3.sa/" xr:uid="{C896DFE6-C762-6C4F-AAEC-DC801124BB56}"/>
+    <hyperlink ref="B49" r:id="rId48" display="http://bmeb3.sa/" xr:uid="{EBEF1FAC-8C73-7441-8382-37DC9812C986}"/>
+    <hyperlink ref="B50" r:id="rId49" display="http://bmeb4.sa/" xr:uid="{D868C6E7-AEEF-684C-8790-7F011FC57BA7}"/>
+    <hyperlink ref="B51" r:id="rId50" display="http://bmin3.sa/" xr:uid="{7316F439-04DB-114C-A0EB-34C42AB80A00}"/>
+    <hyperlink ref="B52" r:id="rId51" display="http://bmin4.sa/" xr:uid="{70D69AC3-0325-0F4B-9FDE-CA6985A99CF6}"/>
+    <hyperlink ref="B53" r:id="rId52" display="http://bmks3.sa/" xr:uid="{20512020-FFA3-774B-910E-840CBB3B24DD}"/>
+    <hyperlink ref="B54" r:id="rId53" display="http://bnbr3.sa/" xr:uid="{626B5512-AA35-CF49-82E9-39C1A9E4851A}"/>
+    <hyperlink ref="B55" r:id="rId54" display="http://bnbr4.sa/" xr:uid="{6B5A2521-4A99-D840-8136-0FCCBBE0D27D}"/>
+    <hyperlink ref="B56" r:id="rId55" display="http://boac34.sa/" xr:uid="{B8F04E7A-439F-264E-8670-0C7743D77A2F}"/>
+    <hyperlink ref="B57" r:id="rId56" display="http://bobr3.sa/" xr:uid="{C38928FA-3BCC-D24A-9104-3A578F473869}"/>
+    <hyperlink ref="B58" r:id="rId57" display="http://bobr4.sa/" xr:uid="{6A9715CD-C383-0147-ABFD-121400E4BC1C}"/>
+    <hyperlink ref="B59" r:id="rId58" display="http://bpan4.sa/" xr:uid="{038FD8F6-0C53-0F43-9D3B-823101F5574E}"/>
+    <hyperlink ref="B60" r:id="rId59" display="http://brap3.sa/" xr:uid="{DEF765E0-24C0-FE48-B4D5-93642CD0B621}"/>
+    <hyperlink ref="B61" r:id="rId60" display="http://brap4.sa/" xr:uid="{92C7E0E9-5AD9-9845-BA8B-FAE72304C797}"/>
+    <hyperlink ref="B62" r:id="rId61" display="http://brdt3.sa/" xr:uid="{382CC80B-2ECF-0A48-83DB-6A6B6F98CD52}"/>
+    <hyperlink ref="B63" r:id="rId62" display="http://brdt4.sa/" xr:uid="{88B6E700-E4FA-3049-AD89-B171C8D4757D}"/>
+    <hyperlink ref="B64" r:id="rId63" display="http://brfs3.sa/" xr:uid="{337DB3B3-69D9-7748-AC7B-9AC7215A068E}"/>
+    <hyperlink ref="B65" r:id="rId64" display="http://briv3.sa/" xr:uid="{148586B2-D994-D74F-98DD-2A04910AC622}"/>
+    <hyperlink ref="B66" r:id="rId65" display="http://briv4.sa/" xr:uid="{8C8E5D1F-BDD2-AA48-ABA9-8747FC7A619A}"/>
+    <hyperlink ref="B67" r:id="rId66" display="http://brkm3.sa/" xr:uid="{86AD7AFD-ABA2-BC40-AE5F-841B990DD55B}"/>
+    <hyperlink ref="B68" r:id="rId67" display="http://brkm5.sa/" xr:uid="{2C451140-9ECD-8048-AB82-AAA2958F05D9}"/>
+    <hyperlink ref="B69" r:id="rId68" display="http://brml3.sa/" xr:uid="{82B5ADA4-93E6-5849-B461-9F87BC3BE297}"/>
+    <hyperlink ref="B70" r:id="rId69" display="http://brpr3.sa/" xr:uid="{AEE323DB-77C0-764A-B671-94196DC09EAF}"/>
+    <hyperlink ref="B71" r:id="rId70" display="http://brsr3.sa/" xr:uid="{FA01A766-01DB-4B4A-A878-F0F737CE0B6A}"/>
+    <hyperlink ref="B72" r:id="rId71" display="http://brsr6.sa/" xr:uid="{93574FB3-8474-DF4C-B92D-1D7F33B7F40E}"/>
+    <hyperlink ref="B73" r:id="rId72" display="http://brto34.sa/" xr:uid="{D4D6C718-2324-E548-939A-1DFE5B6CE0E8}"/>
+    <hyperlink ref="B74" r:id="rId73" display="http://bsev3.sa/" xr:uid="{323928A2-2772-C74C-82A5-618B22806A4E}"/>
+    <hyperlink ref="B75" r:id="rId74" display="http://bsli3.sa/" xr:uid="{F0AF5A50-A700-AF43-9B15-7B3FD8C263B9}"/>
+    <hyperlink ref="B76" r:id="rId75" display="http://btow3.sa/" xr:uid="{364924E9-55CC-914C-A461-5F760C91E695}"/>
+    <hyperlink ref="B77" r:id="rId76" display="http://bttl3.sa/" xr:uid="{24E217A1-67A3-A94C-85DA-67A41C5C802B}"/>
+    <hyperlink ref="B78" r:id="rId77" display="http://camb3.sa/" xr:uid="{A8B498AE-9370-CA44-80B6-068F1AB8F08D}"/>
+    <hyperlink ref="B79" r:id="rId78" display="http://camb4.sa/" xr:uid="{C78EEE16-4DD5-3142-94F7-47FBFF7A527D}"/>
+    <hyperlink ref="B80" r:id="rId79" display="http://caml3.sa/" xr:uid="{E1028CA5-EBEC-F74F-B691-57159C59B88F}"/>
+    <hyperlink ref="B81" r:id="rId80" display="http://card3.sa/" xr:uid="{04B978B7-59A5-7D48-A733-ADE6CCDF9E3B}"/>
+    <hyperlink ref="B82" r:id="rId81" display="http://cbee3.sa/" xr:uid="{82D67440-E2B5-F143-B64D-1F6C6CDDF167}"/>
+    <hyperlink ref="B83" r:id="rId82" display="http://ccpr3.sa/" xr:uid="{A656BF8B-4492-4941-AF8F-D2B7E82F87E1}"/>
+    <hyperlink ref="B84" r:id="rId83" display="http://ccro3.sa/" xr:uid="{51A54D8F-12E3-0F40-9CB6-CF4267BA9EDA}"/>
+    <hyperlink ref="B85" r:id="rId84" display="http://ceab3.sa/" xr:uid="{2D764211-103C-CA46-B679-567E0CB62346}"/>
+    <hyperlink ref="B86" r:id="rId85" display="http://cebr3.sa/" xr:uid="{B726BCA4-32C5-A84E-BADF-FBAC92922760}"/>
+    <hyperlink ref="B87" r:id="rId86" display="http://cedo3.sa/" xr:uid="{E0F407C0-9DD9-BF43-91D1-080E7A031256}"/>
+    <hyperlink ref="B88" r:id="rId87" display="http://ceeb3.sa/" xr:uid="{00B1300E-0CDC-1C48-85F7-CF8CA9EE07A1}"/>
+    <hyperlink ref="B89" r:id="rId88" display="http://cegr3.sa/" xr:uid="{9DDD468E-174A-D747-8A5A-CBA9075E612E}"/>
+    <hyperlink ref="B90" r:id="rId89" display="http://cepe3.sa/" xr:uid="{61F356CE-3A57-3247-BDA3-31DD965D774B}"/>
+    <hyperlink ref="B91" r:id="rId90" display="http://cesp3.sa/" xr:uid="{834E105A-24AC-EE4E-93E9-71888BEAF7AB}"/>
+    <hyperlink ref="B92" r:id="rId91" display="http://cesp5.sa/" xr:uid="{C448BA28-101F-A944-8457-C78B58997296}"/>
+    <hyperlink ref="B93" r:id="rId92" display="http://cesp6.sa/" xr:uid="{4DA8E985-2452-DF49-B16F-B791F930649E}"/>
+    <hyperlink ref="B94" r:id="rId93" display="http://cgas3.sa/" xr:uid="{D817C33D-CEF8-4B43-88F7-DE5400CD37BA}"/>
+    <hyperlink ref="B95" r:id="rId94" display="http://cgas5.sa/" xr:uid="{3FD607C5-2064-AA4E-B283-D3E593A52DF7}"/>
+    <hyperlink ref="B96" r:id="rId95" display="http://cgra3.sa/" xr:uid="{26E72C68-10C2-4F4C-A119-CBA27247A902}"/>
+    <hyperlink ref="B97" r:id="rId96" display="http://cgra4.sa/" xr:uid="{B35E5A1B-9C1E-FC43-8BF4-79726A2F457C}"/>
+    <hyperlink ref="B98" r:id="rId97" display="http://chvx34.sa/" xr:uid="{5E30DD91-7530-4C4F-87F9-60AC6BE97350}"/>
+    <hyperlink ref="B99" r:id="rId98" display="http://ciel3.sa/" xr:uid="{EC23F0C5-7FA1-2E43-BE35-FE8E201C56B0}"/>
+    <hyperlink ref="B100" r:id="rId99" display="http://clsc3.sa/" xr:uid="{3CC4F08C-F47A-4A41-9788-98045F73B361}"/>
+    <hyperlink ref="B101" r:id="rId100" display="http://clsc4.sa/" xr:uid="{025F9711-313D-E143-BCB2-A44083F36B25}"/>
+    <hyperlink ref="B102" r:id="rId101" display="http://clsc6.sa/" xr:uid="{5F2AC083-CBB1-0041-8481-2DEAA15BF6B2}"/>
+    <hyperlink ref="B103" r:id="rId102" display="http://cmcs34.sa/" xr:uid="{6EB219F4-917B-CA42-8BC6-871D66A542EA}"/>
+    <hyperlink ref="B104" r:id="rId103" display="http://cmig3.sa/" xr:uid="{5A6CB4C5-4407-DB43-8294-7B64277B4390}"/>
+    <hyperlink ref="B105" r:id="rId104" display="http://cmig4.sa/" xr:uid="{A00B4694-C010-314D-8A2B-C0B4EC9C959B}"/>
+    <hyperlink ref="B106" r:id="rId105" display="http://cnto3.sa/" xr:uid="{72DD7D31-0C3A-6C4B-9349-6E12426A1E48}"/>
+    <hyperlink ref="B107" r:id="rId106" display="http://coce3.sa/" xr:uid="{5E77EF37-0495-0747-8AFC-A2F5B0E5E6AD}"/>
+    <hyperlink ref="B108" r:id="rId107" display="http://coce5.sa/" xr:uid="{2B76167F-1C30-AB4F-88B4-4518A7E4CC6F}"/>
+    <hyperlink ref="B109" r:id="rId108" display="http://cogn3.sa/" xr:uid="{6BE4D352-80EE-2440-A60B-A7C5B826A296}"/>
+    <hyperlink ref="B110" r:id="rId109" display="http://corr3.sa/" xr:uid="{4D125963-4B83-B142-B9DB-B311F072B249}"/>
+    <hyperlink ref="B111" r:id="rId110" display="http://cowc34.sa/" xr:uid="{B0E16879-4893-B947-BE23-A0517D584FEA}"/>
+    <hyperlink ref="B112" r:id="rId111" display="http://cpfe3.sa/" xr:uid="{677CDAF6-B257-7946-941B-FD5F443705D1}"/>
+    <hyperlink ref="B113" r:id="rId112" display="http://cple3.sa/" xr:uid="{FCA6ED97-D5CA-AB47-854F-B25CF8E9F8DC}"/>
+    <hyperlink ref="B114" r:id="rId113" display="http://cple6.sa/" xr:uid="{A4A48B46-0177-C54A-A668-50F5BBEC78FC}"/>
+    <hyperlink ref="B115" r:id="rId114" display="http://cpre3.sa/" xr:uid="{66BAFBAD-5AB6-854F-9DD6-26E70AA92A76}"/>
+    <hyperlink ref="B116" r:id="rId115" display="http://crde3.sa/" xr:uid="{F2698BFA-30D9-964B-81AD-172CCBCB2D9A}"/>
+    <hyperlink ref="B117" r:id="rId116" display="http://crfb3.sa/" xr:uid="{D1F1B449-9609-8E43-B852-7FDFC0015373}"/>
+    <hyperlink ref="B118" r:id="rId117" display="http://criv3.sa/" xr:uid="{D003EDCF-DA70-7D43-A47C-014979F507E7}"/>
+    <hyperlink ref="B119" r:id="rId118" display="http://criv4.sa/" xr:uid="{F08AA96F-D490-7048-A039-256ECDA5383E}"/>
+    <hyperlink ref="B120" r:id="rId119" display="http://crpg3.sa/" xr:uid="{5890C7C7-6EAF-8349-BD8F-40BA18BAA81A}"/>
+    <hyperlink ref="B121" r:id="rId120" display="http://crpg5.sa/" xr:uid="{B36C6FEC-F59F-8545-8846-E553376493B0}"/>
+    <hyperlink ref="B122" r:id="rId121" display="http://crpg6.sa/" xr:uid="{5F0F48BB-0CAB-B14B-A4CE-606D61669B05}"/>
+    <hyperlink ref="B123" r:id="rId122" display="http://csab3.sa/" xr:uid="{CB774132-0050-BE42-A05B-06F5FFE2DFF6}"/>
+    <hyperlink ref="B124" r:id="rId123" display="http://csan3.sa/" xr:uid="{41FC7C5B-B44A-404C-B4C2-3DBED83D7334}"/>
+    <hyperlink ref="B125" r:id="rId124" display="http://csmg3.sa/" xr:uid="{53F5550C-8D30-8F47-A5E5-06ADD4F398B9}"/>
+    <hyperlink ref="B126" r:id="rId125" display="http://csna3.sa/" xr:uid="{825B86AF-6054-AE47-8EF1-630ED49B926F}"/>
+    <hyperlink ref="B127" r:id="rId126" display="http://csrn3.sa/" xr:uid="{0CCB1356-1CE1-4E44-98DE-4573BB97803C}"/>
+    <hyperlink ref="B128" r:id="rId127" display="http://ctax4.sa/" xr:uid="{CFD2713C-9B69-414D-B09F-6BC55FE1BE51}"/>
+    <hyperlink ref="B129" r:id="rId128" display="http://ctgp34.sa/" xr:uid="{88416677-06A9-A840-B6B5-8C56EFF98524}"/>
+    <hyperlink ref="B130" r:id="rId129" display="http://ctka3.sa/" xr:uid="{D35806A9-E12F-B547-82D5-A57305945891}"/>
+    <hyperlink ref="B131" r:id="rId130" display="http://ctka4.sa/" xr:uid="{2FF96A18-3577-CE48-A7F1-B8BA4280C62B}"/>
+    <hyperlink ref="B132" r:id="rId131" display="http://ctnm3.sa/" xr:uid="{E779377C-A069-5541-A464-2AC874EE3C83}"/>
+    <hyperlink ref="B133" r:id="rId132" display="http://ctnm4.sa/" xr:uid="{4918E0BD-F0CD-584C-BD3F-1F05F19C10B3}"/>
+    <hyperlink ref="B134" r:id="rId133" display="http://ctsa3.sa/" xr:uid="{CA406CDB-F17A-6545-AA34-E661D9D776E1}"/>
+    <hyperlink ref="B135" r:id="rId134" display="http://ctsa4.sa/" xr:uid="{F23FFCA0-9E37-114B-A24B-0F0C7ED51C55}"/>
+    <hyperlink ref="B136" r:id="rId135" display="http://cvcb3.sa/" xr:uid="{268E7446-535B-DD4E-ACC0-00E832949DBD}"/>
+    <hyperlink ref="B137" r:id="rId136" display="http://cyre3.sa/" xr:uid="{7DBFA300-B0C4-3F4D-A267-8FE7A7A48D31}"/>
+    <hyperlink ref="B138" r:id="rId137" display="http://czlt33.sa/" xr:uid="{63112634-3C6A-E644-8667-33FE7ECABEF8}"/>
+    <hyperlink ref="B139" r:id="rId138" display="http://dagb33.sa/" xr:uid="{D5E52845-9011-8D45-BF2E-207C7127F1AD}"/>
+    <hyperlink ref="B140" r:id="rId139" display="http://dasa3.sa/" xr:uid="{DB7A75E6-A7B2-1E41-B2CC-D66127C1C1F3}"/>
+    <hyperlink ref="B141" r:id="rId140" display="http://dirr3.sa/" xr:uid="{59405237-E076-BE41-80C7-DC73FAB90602}"/>
+    <hyperlink ref="B142" r:id="rId141" display="http://disb34.sa/" xr:uid="{53ADD6B2-76AF-4348-B1A9-629F0E863783}"/>
+    <hyperlink ref="B143" r:id="rId142" display="http://dmmo3.sa/" xr:uid="{EF922789-FC15-8845-9908-EA95C9F6BE8B}"/>
+    <hyperlink ref="B144" r:id="rId143" display="http://dohl3.sa/" xr:uid="{DBEE69FE-3F01-4B40-9482-00EA8482B5B1}"/>
+    <hyperlink ref="B145" r:id="rId144" display="http://dtcy3.sa/" xr:uid="{EE6DD251-E403-FE41-B9F6-5139033421B6}"/>
+    <hyperlink ref="B146" r:id="rId145" display="http://dtex3.sa/" xr:uid="{725802ED-4F01-AB49-8C07-7EFDBC298D8B}"/>
+    <hyperlink ref="B147" r:id="rId146" display="http://ealt3.sa/" xr:uid="{36FCE051-6B69-4D44-B2B4-73F0AAF0D66E}"/>
+    <hyperlink ref="B148" r:id="rId147" display="http://ealt4.sa/" xr:uid="{79C4D01F-A242-D64C-B47D-4699B4648A62}"/>
+    <hyperlink ref="B149" r:id="rId148" display="http://ecor3.sa/" xr:uid="{70B619B6-C84B-3949-89C8-968742C10DB2}"/>
+    <hyperlink ref="B150" r:id="rId149" display="http://egie3.sa/" xr:uid="{67721D77-7C0C-FA47-AFD3-686EF32C2F4E}"/>
+    <hyperlink ref="B151" r:id="rId150" display="http://ektr3.sa/" xr:uid="{F4D5ADF9-BB6C-F949-BD0E-FA8C4697CF8A}"/>
+    <hyperlink ref="B152" r:id="rId151" display="http://ektr4.sa/" xr:uid="{5E2CB74A-A7D4-2C49-84A5-5D41D3DE55A8}"/>
+    <hyperlink ref="B153" r:id="rId152" display="http://elek3.sa/" xr:uid="{AEB6D5E5-71EC-2A4D-BD46-8061296B7751}"/>
+    <hyperlink ref="B154" r:id="rId153" display="http://elek4.sa/" xr:uid="{35A32B15-9341-4E47-B45B-438427E3BB3A}"/>
+    <hyperlink ref="B155" r:id="rId154" display="http://elet3.sa/" xr:uid="{9E4FFAFF-EA36-E441-A45C-F11EF36B121E}"/>
+    <hyperlink ref="B156" r:id="rId155" display="http://elet6.sa/" xr:uid="{FE16F583-B527-0B41-BE4F-896FF4C13276}"/>
+    <hyperlink ref="B157" r:id="rId156" display="http://emae4.sa/" xr:uid="{38F469FD-A059-1A43-9082-0E1810F3FC22}"/>
+    <hyperlink ref="B158" r:id="rId157" display="http://embr3.sa/" xr:uid="{ECEA30F8-EAAB-8040-86F3-3FA914CCE484}"/>
+    <hyperlink ref="B159" r:id="rId158" display="http://embr4.sa/" xr:uid="{B34CD99B-CBD8-474D-810C-9DBE3BCAAD3C}"/>
+    <hyperlink ref="B160" r:id="rId159" display="http://enat3.sa/" xr:uid="{E453A04B-0BEF-1C45-B5AF-E559CA26572D}"/>
+    <hyperlink ref="B161" r:id="rId160" display="http://enbr3.sa/" xr:uid="{56B44116-3137-FA4D-A243-0AB508BEC7A0}"/>
+    <hyperlink ref="B162" r:id="rId161" display="http://enev3.sa/" xr:uid="{F712063B-FC88-FF48-A65F-59D31E75ED7A}"/>
+    <hyperlink ref="B163" r:id="rId162" display="http://engi3.sa/" xr:uid="{CBE9644F-E01F-1345-A1B8-1150D69F9B02}"/>
+    <hyperlink ref="B164" r:id="rId163" display="http://engi4.sa/" xr:uid="{D618882D-6C0B-784A-8E9F-066E3EDDA308}"/>
+    <hyperlink ref="B165" r:id="rId164" display="http://enmt3.sa/" xr:uid="{36539AEB-262E-BA4D-89A2-5DC6A2040BF1}"/>
+    <hyperlink ref="B166" r:id="rId165" display="http://eqtl3.sa/" xr:uid="{5B0A89C4-07A9-6B4F-B18C-9F4DEB46CBE3}"/>
+    <hyperlink ref="B167" r:id="rId166" display="http://estr3.sa/" xr:uid="{E5A752A7-0221-434D-99E9-0D8ED7A65063}"/>
+    <hyperlink ref="B168" r:id="rId167" display="http://estr4.sa/" xr:uid="{8283D5D1-9D7E-9A48-92DD-7468B54D0995}"/>
+    <hyperlink ref="B169" r:id="rId168" display="http://eter3.sa/" xr:uid="{7B773061-EC10-4D46-99E2-1295D735F699}"/>
+    <hyperlink ref="B170" r:id="rId169" display="http://euca3.sa/" xr:uid="{0AF44A3F-C1C7-5C42-B3B9-A3641F67FD58}"/>
+    <hyperlink ref="B171" r:id="rId170" display="http://euca4.sa/" xr:uid="{55310A54-6E71-6B4B-803A-9C18E780EF51}"/>
+    <hyperlink ref="B172" r:id="rId171" display="http://even3.sa/" xr:uid="{55801923-21FE-7B47-9FF3-A1C337B9F0E1}"/>
+    <hyperlink ref="B173" r:id="rId172" display="http://exxo34.sa/" xr:uid="{06FCA7DB-3F65-4545-9E8E-387309A7848F}"/>
+    <hyperlink ref="B174" r:id="rId173" display="http://eztc3.sa/" xr:uid="{69B7535D-820D-7F46-9C13-41E64689B15C}"/>
+    <hyperlink ref="B175" r:id="rId174" display="http://fbok34.sa/" xr:uid="{7E4BD59A-6837-334A-846F-1B84E36CC61D}"/>
+    <hyperlink ref="B176" r:id="rId175" display="http://fesa3.sa/" xr:uid="{85D42C1B-0257-1947-B4F5-F265366977C1}"/>
+    <hyperlink ref="B177" r:id="rId176" display="http://fesa4.sa/" xr:uid="{44EE9769-2DF7-ED46-A26B-283FD418978F}"/>
+    <hyperlink ref="B178" r:id="rId177" display="http://fher3.sa/" xr:uid="{55B902B0-D069-A342-9725-E2CEF70924E1}"/>
+    <hyperlink ref="B179" r:id="rId178" display="http://flry3.sa/" xr:uid="{43F80A00-9084-AD40-823F-3484536761E2}"/>
+    <hyperlink ref="B180" r:id="rId179" display="http://fras3.sa/" xr:uid="{E0F781DA-07C8-1843-BD6A-17C3F71589F3}"/>
+    <hyperlink ref="B181" r:id="rId180" display="http://fras4.sa/" xr:uid="{422FB4ED-EAAE-CE4B-8CF0-514E9ACBC9F5}"/>
+    <hyperlink ref="B182" r:id="rId181" display="http://frio3.sa/" xr:uid="{5067E579-ADDF-B044-8839-7DB9E82523AA}"/>
+    <hyperlink ref="B183" r:id="rId182" display="http://frta3.sa/" xr:uid="{A3E51A48-8CCA-294E-BED6-2A2E8C2164A4}"/>
+    <hyperlink ref="B184" r:id="rId183" display="http://gbio33.sa/" xr:uid="{509AE15E-7AA4-6B47-82B8-3F3FE72E5753}"/>
+    <hyperlink ref="B185" r:id="rId184" display="http://geoo34.sa/" xr:uid="{5F871AC1-F78D-0843-A3DE-0D9D013EFFD8}"/>
+    <hyperlink ref="B186" r:id="rId185" display="http://gepa3.sa/" xr:uid="{B3F600F7-1D55-B145-89EA-FA6ABC3FF91D}"/>
+    <hyperlink ref="B187" r:id="rId186" display="http://gfsa3.sa/" xr:uid="{E10A8D71-1B4E-B142-A739-B9D1F6542E8F}"/>
+    <hyperlink ref="B188" r:id="rId187" display="http://ggbr3.sa/" xr:uid="{1DD44B65-A0E2-6D45-AAD5-B7B6EB3C5F35}"/>
+    <hyperlink ref="B189" r:id="rId188" display="http://ggbr4.sa/" xr:uid="{6110E83F-67D0-764C-BD5D-30B455CD89F2}"/>
+    <hyperlink ref="B190" r:id="rId189" display="http://glob4.sa/" xr:uid="{FC38AD74-5381-4548-B525-3720998DC71F}"/>
+    <hyperlink ref="B191" r:id="rId190" display="http://gndi3.sa/" xr:uid="{DFF14450-9B3A-4545-AEED-5958C3127C8A}"/>
+    <hyperlink ref="B192" r:id="rId191" display="http://goau3.sa/" xr:uid="{DE3A9224-44D1-B54E-B47C-394EC83658BF}"/>
+    <hyperlink ref="B193" r:id="rId192" display="http://goau4.sa/" xr:uid="{48BE05D9-3D33-7F4C-B144-E0F01A2E174A}"/>
+    <hyperlink ref="B194" r:id="rId193" display="http://gogl34.sa/" xr:uid="{51958169-81B2-FF4C-A9A3-4F930447E9C4}"/>
+    <hyperlink ref="B195" r:id="rId194" display="http://gogl35.sa/" xr:uid="{1F1AEB17-33BA-0C43-8E6B-E63071C48F99}"/>
+    <hyperlink ref="B196" r:id="rId195" display="http://goll4.sa/" xr:uid="{88D37089-944E-7D4B-92BA-3E93DA83A0D2}"/>
+    <hyperlink ref="B197" r:id="rId196" display="http://gpcp3.sa/" xr:uid="{0EEFF2D1-27A2-3945-850D-E639B3316C3D}"/>
+    <hyperlink ref="B198" r:id="rId197" display="http://gpiv33.sa/" xr:uid="{1D1384DB-F1FD-6D4E-A293-D8504280B474}"/>
+    <hyperlink ref="B199" r:id="rId198" display="http://grnd3.sa/" xr:uid="{B28315B4-5226-344C-AC66-EC33E1AFB89D}"/>
+    <hyperlink ref="B200" r:id="rId199" display="http://gsgi34.sa/" xr:uid="{6A7E99FC-A199-0D40-90E8-49ECB5DE2A5B}"/>
+    <hyperlink ref="B201" r:id="rId200" display="http://gshp3.sa/" xr:uid="{EE73BB7C-600F-6D44-B7CA-FA074BF42DD2}"/>
+    <hyperlink ref="B202" r:id="rId201" display="http://guar3.sa/" xr:uid="{78E611E3-F8E9-D44C-8044-426AE4565D57}"/>
+    <hyperlink ref="B203" r:id="rId202" display="http://guar4.sa/" xr:uid="{65ED4F98-E8DF-D344-9B73-5D6484F4A2B9}"/>
+    <hyperlink ref="B204" r:id="rId203" display="http://haga3.sa/" xr:uid="{FA9DBD68-29BD-5A46-A592-D8AE6B2658F7}"/>
+    <hyperlink ref="B205" r:id="rId204" display="http://haga4.sa/" xr:uid="{0D821D83-AD3C-8D4D-999D-247F92606478}"/>
+    <hyperlink ref="B206" r:id="rId205" display="http://hapv3.sa/" xr:uid="{69151CCE-DCFF-D14F-B30B-A1CDE9D084FE}"/>
+    <hyperlink ref="B207" r:id="rId206" display="http://hbor3.sa/" xr:uid="{99C8E427-ADDA-8B44-B285-FAA4632073C4}"/>
+    <hyperlink ref="B208" r:id="rId207" display="http://hbts5.sa/" xr:uid="{EBBA6F23-1931-FA47-8550-849111BE6119}"/>
+    <hyperlink ref="B209" r:id="rId208" display="http://heta3.sa/" xr:uid="{4EA4C53F-A9A9-3343-9881-A1F49B5612AF}"/>
+    <hyperlink ref="B210" r:id="rId209" display="http://heta4.sa/" xr:uid="{450E6C71-4303-254C-8CDC-3175F33C5C90}"/>
+    <hyperlink ref="B211" r:id="rId210" display="http://hgtx3.sa/" xr:uid="{21787150-92ED-F445-9FCA-D688CB182CED}"/>
+    <hyperlink ref="B212" r:id="rId211" display="http://home34.sa/" xr:uid="{0B74EE3E-49D7-5A44-A1AF-640E5C06DC51}"/>
+    <hyperlink ref="B213" r:id="rId212" display="http://hoot4.sa/" xr:uid="{856CED65-7324-BD40-BE19-9FDA37E2288A}"/>
+    <hyperlink ref="B214" r:id="rId213" display="http://hype3.sa/" xr:uid="{CC973A0B-E0AA-E741-A50F-F115B78DE339}"/>
+    <hyperlink ref="B215" r:id="rId214" display="http://idnt3.sa/" xr:uid="{59BC7F74-FCC0-294A-8984-70F5728071CA}"/>
+    <hyperlink ref="B216" r:id="rId215" display="http://idvl4.sa/" xr:uid="{71EAD620-597F-DB45-A729-417ED958D50D}"/>
+    <hyperlink ref="B217" r:id="rId216" display="http://igbr3.sa/" xr:uid="{09FE1F40-CF92-1A48-A32E-C3D06AA92CD7}"/>
+    <hyperlink ref="B218" r:id="rId217" display="http://igbr5.sa/" xr:uid="{82F605A9-736E-6048-8C66-557BC5C2BD03}"/>
+    <hyperlink ref="B219" r:id="rId218" display="http://igta3.sa/" xr:uid="{B9D23CC5-DE99-2640-BA0D-2BE7AF75148C}"/>
+    <hyperlink ref="B220" r:id="rId219" display="http://inep3.sa/" xr:uid="{5D4F1593-90DA-3249-A888-C0E2844B19AF}"/>
+    <hyperlink ref="B221" r:id="rId220" display="http://inep4.sa/" xr:uid="{4B260478-4851-5B42-8987-70BB832A0A4E}"/>
+    <hyperlink ref="B222" r:id="rId221" display="http://irbr3.sa/" xr:uid="{A81262FA-FD19-1647-A7C6-D585535D8FF2}"/>
+    <hyperlink ref="B223" r:id="rId222" display="http://itlc34.sa/" xr:uid="{65726B10-430D-F84F-B3D1-352DE05A665A}"/>
+    <hyperlink ref="B224" r:id="rId223" display="http://itsa3.sa/" xr:uid="{636640BF-FC1E-7C4C-99D5-22F6A138C6EA}"/>
+    <hyperlink ref="B225" r:id="rId224" display="http://itsa4.sa/" xr:uid="{F74D6887-FF61-FE4F-9144-F1AE0A45EF48}"/>
+    <hyperlink ref="B226" r:id="rId225" display="http://itub3.sa/" xr:uid="{0F2FE814-F2A3-5942-91DC-D4B358A68D8E}"/>
+    <hyperlink ref="B227" r:id="rId226" display="http://itub4.sa/" xr:uid="{0BFF8AB4-A2AA-2F4D-BF1E-ACD9E62DB19C}"/>
+    <hyperlink ref="B228" r:id="rId227" display="http://jbdu3.sa/" xr:uid="{04136991-3537-C244-BE2D-644F4865031F}"/>
+    <hyperlink ref="B229" r:id="rId228" display="http://jbdu4.sa/" xr:uid="{50D0DA79-9958-4E4D-9FC9-133C2B223C3A}"/>
+    <hyperlink ref="B230" r:id="rId229" display="http://jbss3.sa/" xr:uid="{E3568331-9DC8-3C4E-BBF4-8EC46301E122}"/>
+    <hyperlink ref="B231" r:id="rId230" display="http://jfen3.sa/" xr:uid="{73DDF059-B97A-7647-AF5F-16966BC3E5EC}"/>
+    <hyperlink ref="B232" r:id="rId231" display="http://jhsf3.sa/" xr:uid="{348C1F8A-886B-E446-B544-5E6A2E33E674}"/>
+    <hyperlink ref="B233" r:id="rId232" display="http://jnjb34.sa/" xr:uid="{3F652D7F-6ECF-4648-9B73-1ABAD9F4C29C}"/>
+    <hyperlink ref="B234" r:id="rId233" display="http://jopa3.sa/" xr:uid="{092F0082-102F-CD48-81D9-6B19AE7713AD}"/>
+    <hyperlink ref="B235" r:id="rId234" display="http://jpmc34.sa/" xr:uid="{3EDD6B97-BD4F-5F49-8A0B-F5240621B700}"/>
+    <hyperlink ref="B236" r:id="rId235" display="http://jpsa3.sa/" xr:uid="{44C163B0-AFC6-9F4F-8475-3724BCDF440E}"/>
+    <hyperlink ref="B237" r:id="rId236" display="http://jslg3.sa/" xr:uid="{E965053D-5E8F-404B-9418-4578860959C6}"/>
+    <hyperlink ref="B238" r:id="rId237" display="http://kepl3.sa/" xr:uid="{17AC7E31-EFB3-CD49-B65F-B0D4AD22BB48}"/>
+    <hyperlink ref="B239" r:id="rId238" display="http://klbn3.sa/" xr:uid="{74DC1B05-8911-834B-8E3E-93F38DDC22E7}"/>
+    <hyperlink ref="B240" r:id="rId239" display="http://klbn4.sa/" xr:uid="{FB8FF35E-B441-0C46-B45D-D9BA8FCFC764}"/>
+    <hyperlink ref="B241" r:id="rId240" display="http://lame3.sa/" xr:uid="{8533F9B5-ED5E-EC43-A7E9-26983B7AD1CF}"/>
+    <hyperlink ref="B242" r:id="rId241" display="http://lame4.sa/" xr:uid="{0D7556BF-C069-484B-955D-2E9009BF47F1}"/>
+    <hyperlink ref="B243" r:id="rId242" display="http://lcam3.sa/" xr:uid="{0ADD2B49-E73B-CD43-99A7-7B52CE26C251}"/>
+    <hyperlink ref="B244" r:id="rId243" display="http://leve3.sa/" xr:uid="{35F86775-ABE5-0B40-B26A-F3A5247EE49C}"/>
+    <hyperlink ref="B245" r:id="rId244" display="http://leve4.sa/" xr:uid="{949790B2-52A6-8346-B465-AC3AC226B30E}"/>
+    <hyperlink ref="B246" r:id="rId245" display="http://ligt3.sa/" xr:uid="{DD8C2C28-CC4F-F04F-8708-77D5C6AE9ADF}"/>
+    <hyperlink ref="B247" r:id="rId246" display="http://linx3.sa/" xr:uid="{1047ECE3-7B5A-2C43-9656-BF47C8AD56FA}"/>
+    <hyperlink ref="B248" r:id="rId247" display="http://lipr3.sa/" xr:uid="{5F01A228-BA47-0442-9F9E-1C1C8E288608}"/>
+    <hyperlink ref="B249" r:id="rId248" display="http://llis3.sa/" xr:uid="{6A2F8354-14D7-3D41-A8D7-937CF49E2CD3}"/>
+    <hyperlink ref="B250" r:id="rId249" display="http://logg3.sa/" xr:uid="{DE290069-8D59-4646-B821-4EC958336342}"/>
+    <hyperlink ref="B251" r:id="rId250" display="http://logn3.sa/" xr:uid="{24F1C27F-DF38-7D46-9294-51F181BC44FE}"/>
+    <hyperlink ref="B252" r:id="rId251" display="http://lpsb3.sa/" xr:uid="{AD1DCBA6-F0DA-3F4B-AA51-5BBE96C51567}"/>
+    <hyperlink ref="B253" r:id="rId252" display="http://lren3.sa/" xr:uid="{1A535375-D54A-4A44-8C53-2B24F24C5E6C}"/>
+    <hyperlink ref="B254" r:id="rId253" display="http://lupa3.sa/" xr:uid="{8EB0E7BD-A76C-FE45-A39D-959F1B86CFD2}"/>
+    <hyperlink ref="B255" r:id="rId254" display="http://luxm3.sa/" xr:uid="{325903F3-AD99-D447-9ADC-3A9B47C0C98D}"/>
+    <hyperlink ref="B256" r:id="rId255" display="http://lwsa3.sa/" xr:uid="{8A4C3A63-22F7-7E4F-8311-7416FF72A00B}"/>
+    <hyperlink ref="B257" r:id="rId256" display="http://mapt3.sa/" xr:uid="{7E11EF93-FD73-BD4C-828E-F5F37B0D60E8}"/>
+    <hyperlink ref="B258" r:id="rId257" display="http://mapt4.sa/" xr:uid="{666FD812-59D7-1A45-83BD-C4577F871AF7}"/>
+    <hyperlink ref="B259" r:id="rId258" display="http://mcdc34.sa/" xr:uid="{446C0184-EB7F-0445-8D60-681FEBEA0EDA}"/>
+    <hyperlink ref="B260" r:id="rId259" display="http://mdia3.sa/" xr:uid="{CCD31916-9102-4147-88DF-73A971391B23}"/>
+    <hyperlink ref="B261" r:id="rId260" display="http://mdne3.sa/" xr:uid="{BAA11A66-D64D-DE4E-9F14-7B198DA00E65}"/>
+    <hyperlink ref="B262" r:id="rId261" display="http://meal3.sa/" xr:uid="{FE40FBD4-091A-8848-9403-2D73992742FD}"/>
+    <hyperlink ref="B263" r:id="rId262" display="http://merc3.sa/" xr:uid="{7AA59133-60AF-FF47-9E63-65D2FC75AD42}"/>
+    <hyperlink ref="B264" r:id="rId263" display="http://mgel3.sa/" xr:uid="{C011D2CE-E122-F84D-9BE5-22AB6A388E24}"/>
+    <hyperlink ref="B265" r:id="rId264" display="http://mgel4.sa/" xr:uid="{1BD8C437-39E5-034B-81A3-869E161ACF67}"/>
+    <hyperlink ref="B266" r:id="rId265" display="http://mglu3.sa/" xr:uid="{CE7EB567-C08C-664D-A506-5B1E5EDFEE4C}"/>
+    <hyperlink ref="B267" r:id="rId266" display="http://mils3.sa/" xr:uid="{8CBFEA85-4D67-B046-9295-EF0654C3A06A}"/>
+    <hyperlink ref="B268" r:id="rId267" display="http://mmmc34.sa/" xr:uid="{113E6865-2091-0D49-B729-BA8BA6890242}"/>
+    <hyperlink ref="B269" r:id="rId268" display="http://mmxm3.sa/" xr:uid="{88569672-7F1C-8B4F-9FCC-C3E0722E30F4}"/>
+    <hyperlink ref="B270" r:id="rId269" display="http://mndl3.sa/" xr:uid="{A32D4515-F8AD-804A-9ED6-07DCF932F8CA}"/>
+    <hyperlink ref="B271" r:id="rId270" display="http://mndl4.sa/" xr:uid="{B8EE76AE-AA05-9D4D-BF54-EEAE0F78971E}"/>
+    <hyperlink ref="B272" r:id="rId271" display="http://mnpr3.sa/" xr:uid="{60A04E59-F3F2-6641-A5C2-C25B08BACD05}"/>
+    <hyperlink ref="B273" r:id="rId272" display="http://mnpr4.sa/" xr:uid="{A37C2B27-4D07-6445-B0E7-3A431D96A184}"/>
+    <hyperlink ref="B274" r:id="rId273" display="http://moar3.sa/" xr:uid="{2171BE6E-214A-A24B-B629-DA77FD14F9F3}"/>
+    <hyperlink ref="B275" r:id="rId274" display="http://movi3.sa/" xr:uid="{5B72A4B9-BB0D-3748-822D-D4065BF0A403}"/>
+    <hyperlink ref="B276" r:id="rId275" display="http://mrck34.sa/" xr:uid="{AF14DB78-BA1A-B74D-8088-326AFD0BDBF9}"/>
+    <hyperlink ref="B277" r:id="rId276" display="http://mrfg3.sa/" xr:uid="{55AF320D-A23E-2E4D-B9E8-383BB832266C}"/>
+    <hyperlink ref="B278" r:id="rId277" display="http://mrve3.sa/" xr:uid="{12E3F6E1-9A7A-5844-876D-35A4107990B5}"/>
+    <hyperlink ref="B279" r:id="rId278" display="http://msft34.sa/" xr:uid="{6D71A4ED-2DC8-6742-8966-176D9A8F8ADD}"/>
+    <hyperlink ref="B280" r:id="rId279" display="http://mspa3.sa/" xr:uid="{B82ACE59-77C7-714D-B59B-76274C265D28}"/>
+    <hyperlink ref="B281" r:id="rId280" display="http://mtig3.sa/" xr:uid="{A4F571CC-94F3-634C-8821-FB9CC993D50F}"/>
+    <hyperlink ref="B282" r:id="rId281" display="http://mtig4.sa/" xr:uid="{C1EE9462-6C9D-C746-9BDF-D9A2EF3C404A}"/>
+    <hyperlink ref="B283" r:id="rId282" display="http://mtre3.sa/" xr:uid="{57A5A9D5-6022-874F-87BD-6C1103660A01}"/>
+    <hyperlink ref="B284" r:id="rId283" display="http://mtsa4.sa/" xr:uid="{A4AA9556-9F1C-4A4A-B5A7-CF6949D773D2}"/>
+    <hyperlink ref="B285" r:id="rId284" display="http://mult3.sa/" xr:uid="{69CEC9CC-DED0-5543-AB90-0EEDDCE382BC}"/>
+    <hyperlink ref="B286" r:id="rId285" display="http://mwet3.sa/" xr:uid="{D4315E50-F4FB-9C4C-9E94-44DC92CC2DCB}"/>
+    <hyperlink ref="B287" r:id="rId286" display="http://mwet4.sa/" xr:uid="{78ABF05C-5F1D-7144-A166-5011C3DBE791}"/>
+    <hyperlink ref="B288" r:id="rId287" display="http://mypk3.sa/" xr:uid="{578A94B3-D2D0-1242-9428-BB2A3638D505}"/>
+    <hyperlink ref="B289" r:id="rId288" display="http://mypk4.sa/" xr:uid="{551C8638-FED9-3E4F-A21B-D84C4287465F}"/>
+    <hyperlink ref="B290" r:id="rId289" display="http://neoe3.sa/" xr:uid="{AD2E50E2-4811-6D42-B5EB-FFAE5E5737D1}"/>
+    <hyperlink ref="B291" r:id="rId290" display="http://nord3.sa/" xr:uid="{74321140-23FA-C942-9017-B4AF504D96D6}"/>
+    <hyperlink ref="B292" r:id="rId291" display="http://ntco3.sa/" xr:uid="{85FF276A-08E6-5945-99A3-6F25250E7A13}"/>
+    <hyperlink ref="B293" r:id="rId292" display="http://nutr3.sa/" xr:uid="{65303FD2-6548-5C43-A865-45EF5B32C943}"/>
+    <hyperlink ref="B294" r:id="rId293" display="http://odpv3.sa/" xr:uid="{A779F3D3-97A3-444B-841B-EB98E3B486E0}"/>
+    <hyperlink ref="B295" r:id="rId294" display="http://ofsa3.sa/" xr:uid="{4168DA43-EC4E-744B-AAB7-CBB2363D9507}"/>
+    <hyperlink ref="B296" r:id="rId295" display="http://oibr3.sa/" xr:uid="{E956D016-E804-6042-B779-ED1D5CEB3CEF}"/>
+    <hyperlink ref="B297" r:id="rId296" display="http://oibr4.sa/" xr:uid="{729A249B-0FBD-3B4D-835F-02B51A3C37C3}"/>
+    <hyperlink ref="B298" r:id="rId297" display="http://omge3.sa/" xr:uid="{5FB09DAF-937F-A749-8F3D-508E1E18EF3D}"/>
+    <hyperlink ref="B299" r:id="rId298" display="http://orcl34.sa/" xr:uid="{45CCE364-24E5-A143-B98C-9ED7D8C20079}"/>
+    <hyperlink ref="B300" r:id="rId299" display="http://osxb3.sa/" xr:uid="{70A29418-CB82-E444-ABC1-B8437FD111F4}"/>
+    <hyperlink ref="B301" r:id="rId300" display="http://pard3.sa/" xr:uid="{63B6FFCE-69F6-3B4A-AF1D-33CA27F9A5BC}"/>
+    <hyperlink ref="B302" r:id="rId301" display="http://pati3.sa/" xr:uid="{3A5CA7FE-7429-F44F-952D-7243AB82156C}"/>
+    <hyperlink ref="B303" r:id="rId302" display="http://pcar3.sa/" xr:uid="{AE060B63-0CB9-3848-9D74-35D0B543B682}"/>
+    <hyperlink ref="B304" r:id="rId303" display="http://pcar4.sa/" xr:uid="{B5607E2F-B864-4C45-BB6E-AE7E919DB87E}"/>
+    <hyperlink ref="B305" r:id="rId304" display="http://pcar5d.sa/" xr:uid="{952CC0F1-4E2B-C949-9088-911E8D9F1D95}"/>
+    <hyperlink ref="B306" r:id="rId305" display="http://pdgr3.sa/" xr:uid="{19D8AE23-4EC1-274E-A7E9-F0D9431C64E4}"/>
+    <hyperlink ref="B307" r:id="rId306" display="http://peab3.sa/" xr:uid="{252A7811-6874-5645-A68F-E8A9099BE25D}"/>
+    <hyperlink ref="B308" r:id="rId307" display="http://pepb34.sa/" xr:uid="{FB8CEE3D-F299-0349-97C6-620F55D39BDF}"/>
+    <hyperlink ref="B309" r:id="rId308" display="http://petr3.sa/" xr:uid="{DB40182C-AFC4-FB45-A1AB-BDEB6F3CFF4F}"/>
+    <hyperlink ref="B310" r:id="rId309" display="http://petr4.sa/" xr:uid="{0D9975D1-CF86-384E-9DFE-814BCBF21483}"/>
+    <hyperlink ref="B311" r:id="rId310" display="http://pfiz34.sa/" xr:uid="{A42A1FBC-B623-CF4F-B2F2-F98E75BD5722}"/>
+    <hyperlink ref="B312" r:id="rId311" display="http://pfrm3.sa/" xr:uid="{52A4A409-925F-DE47-948C-2B435C2D8E58}"/>
+    <hyperlink ref="B313" r:id="rId312" display="http://pine3.sa/" xr:uid="{E65063FA-F2C5-1E43-8570-B78D912F7739}"/>
+    <hyperlink ref="B314" r:id="rId313" display="http://pine4.sa/" xr:uid="{E134B5CC-542A-244F-8DA9-85CEE57DEA8F}"/>
+    <hyperlink ref="B315" r:id="rId314" display="http://plas3.sa/" xr:uid="{5DFAC23E-7E5F-924C-A667-A80CE479CB60}"/>
+    <hyperlink ref="B316" r:id="rId315" display="http://plas4.sa/" xr:uid="{249BAEA1-6823-D247-B196-00110F0939B5}"/>
+    <hyperlink ref="B317" r:id="rId316" display="http://pmam3.sa/" xr:uid="{2EC8EFE6-8767-8E4B-96A7-EB50263B7C9C}"/>
+    <hyperlink ref="B318" r:id="rId317" display="http://pmam4.sa/" xr:uid="{303BFA77-BE7B-CB43-BF6F-21E2D947401B}"/>
+    <hyperlink ref="B319" r:id="rId318" display="http://pnvl3.sa/" xr:uid="{37096CD6-CE90-ED40-9C28-06AFFCA2BBE1}"/>
+    <hyperlink ref="B320" r:id="rId319" display="http://pomo3.sa/" xr:uid="{6A16AE56-B1A4-4C48-B7C5-3BCC7D0C2276}"/>
+    <hyperlink ref="B321" r:id="rId320" display="http://pomo4.sa/" xr:uid="{0F3F313D-A922-F144-83BA-7DC0CCB89790}"/>
+    <hyperlink ref="B322" r:id="rId321" display="http://posi3.sa/" xr:uid="{B0D28377-36F0-3645-BE74-388D3DFCC4A2}"/>
+    <hyperlink ref="B323" r:id="rId322" display="http://prga4.sa/" xr:uid="{CCFD95A5-177A-F24B-9280-B59780776D4F}"/>
+    <hyperlink ref="B324" r:id="rId323" display="http://prio3.sa/" xr:uid="{B57D5830-BED6-E244-A009-EF5CAFF9D7F4}"/>
+    <hyperlink ref="B325" r:id="rId324" display="http://prnr3.sa/" xr:uid="{77032C8C-C5A8-F543-84E7-A5143B1EFE25}"/>
+    <hyperlink ref="B326" r:id="rId325" display="http://pssa3.sa/" xr:uid="{45F6D67C-71CB-5C4D-8897-5498DE493111}"/>
+    <hyperlink ref="B327" r:id="rId326" display="http://ptbl3.sa/" xr:uid="{24F3D449-5910-964B-BDD7-E0BE9FED5D8C}"/>
+    <hyperlink ref="B328" r:id="rId327" display="http://ptbl4.sa/" xr:uid="{A5B090F5-0BBB-FC4D-BDA9-FE1F2E7BE562}"/>
+    <hyperlink ref="B329" r:id="rId328" display="http://ptnt3.sa/" xr:uid="{B419E948-C08B-5349-88F6-CFD11DE199F5}"/>
+    <hyperlink ref="B330" r:id="rId329" display="http://ptnt4.sa/" xr:uid="{BE573C85-3327-C14A-81F5-FC37C390394D}"/>
+    <hyperlink ref="B331" r:id="rId330" display="http://qual3.sa/" xr:uid="{8B14B909-23B7-8E49-9772-E10B23AC8796}"/>
+    <hyperlink ref="B332" r:id="rId331" display="http://radl3.sa/" xr:uid="{0EE2F47A-8F45-1241-9EEA-2ACFBC12C438}"/>
+    <hyperlink ref="B333" r:id="rId332" display="http://rail3.sa/" xr:uid="{82414F5A-F63F-2B46-B799-2A6E632F216A}"/>
+    <hyperlink ref="B334" r:id="rId333" display="http://rani3.sa/" xr:uid="{6FF1CFAE-5BDA-AC40-B396-57A62910F055}"/>
+    <hyperlink ref="B335" r:id="rId334" display="http://rapt3.sa/" xr:uid="{0A3DDB3D-1638-2640-8190-0233F3C4DE13}"/>
+    <hyperlink ref="B336" r:id="rId335" display="http://rapt4.sa/" xr:uid="{835EDED0-33D2-AC43-A165-F528A83731BA}"/>
+    <hyperlink ref="B337" r:id="rId336" display="http://rcsl4.sa/" xr:uid="{E1B9F6F1-3FDE-9E43-96E5-128E8513555D}"/>
+    <hyperlink ref="B338" r:id="rId337" display="http://rctb31.sa/" xr:uid="{D63B0E03-32DB-E641-9476-A5237B45E3D4}"/>
+    <hyperlink ref="B339" r:id="rId338" display="http://rctb33.sa/" xr:uid="{1DC0E012-ACF7-DA41-BC21-695E17E26D49}"/>
+    <hyperlink ref="B340" r:id="rId339" display="http://rctb41.sa/" xr:uid="{A4DDE5C0-C2A0-5944-8F50-1202330CC348}"/>
+    <hyperlink ref="B341" r:id="rId340" display="http://rctb42.sa/" xr:uid="{BAB9FC57-347E-D249-A87E-38AD9D9D7C91}"/>
+    <hyperlink ref="B342" r:id="rId341" display="http://rdni3.sa/" xr:uid="{AD686EC9-2C9D-8C49-A04D-BE223AEBA77A}"/>
+    <hyperlink ref="B343" r:id="rId342" display="http://rede3.sa/" xr:uid="{18878DFA-02D1-DA46-8C6D-A23619A9B62C}"/>
+    <hyperlink ref="B344" r:id="rId343" display="http://rede4.sa/" xr:uid="{72E5EF6A-60A9-124C-822C-E872BEF6C84C}"/>
+    <hyperlink ref="B345" r:id="rId344" display="http://rent3.sa/" xr:uid="{BBE08832-6051-734B-B334-5C191131334A}"/>
+    <hyperlink ref="B346" r:id="rId345" display="http://rlog3.sa/" xr:uid="{C895CC04-2F9E-2343-90EA-101BA788FE25}"/>
+    <hyperlink ref="B347" r:id="rId346" display="http://rnew3.sa/" xr:uid="{BFB93A88-7C74-9A46-9D4E-8043BB7B8757}"/>
+    <hyperlink ref="B348" r:id="rId347" display="http://rnew4.sa/" xr:uid="{FE01EFF3-4E46-AC43-A779-BD084B16637C}"/>
+    <hyperlink ref="B349" r:id="rId348" display="http://romi3.sa/" xr:uid="{B7AC509C-8796-054E-8FC3-B463F070317F}"/>
+    <hyperlink ref="B350" r:id="rId349" display="http://romi4.sa/" xr:uid="{53F8D98A-953A-2849-9BEB-55B72FF26C41}"/>
+    <hyperlink ref="B351" r:id="rId350" display="http://rpad3.sa/" xr:uid="{C7EFCAC3-B12D-F149-91AF-A45267597ECF}"/>
+    <hyperlink ref="B352" r:id="rId351" display="http://rpmg3.sa/" xr:uid="{708DD722-39EC-C549-B45C-7888897C25AA}"/>
+    <hyperlink ref="B353" r:id="rId352" display="http://rpmg4.sa/" xr:uid="{4AED8C09-154E-5742-8F2E-9F3D8ADA3FDF}"/>
+    <hyperlink ref="B354" r:id="rId353" display="http://rsid3.sa/" xr:uid="{73E46FE1-CDD5-024F-BFAD-FF2FB07E2FA3}"/>
+    <hyperlink ref="B355" r:id="rId354" display="http://rsul4.sa/" xr:uid="{529474F3-D09C-6F41-BF31-F86056324E83}"/>
+    <hyperlink ref="B356" r:id="rId355" display="http://sanb3.sa/" xr:uid="{64F499AA-AC3E-3842-892C-069D391B67DD}"/>
+    <hyperlink ref="B357" r:id="rId356" display="http://sanb4.sa/" xr:uid="{DE7AC2A9-C381-A74B-B18F-FF00C5C275BE}"/>
+    <hyperlink ref="B358" r:id="rId357" display="http://sapr3.sa/" xr:uid="{4E63D0DD-2C81-3342-A1E2-C92946CC0950}"/>
+    <hyperlink ref="B359" r:id="rId358" display="http://sapr4.sa/" xr:uid="{9F92A8B0-1471-FB4C-B04B-D32510973CD8}"/>
+    <hyperlink ref="B360" r:id="rId359" display="http://sbsp3.sa/" xr:uid="{C0412D72-7182-1C44-9CA7-9B26543FBEAC}"/>
+    <hyperlink ref="B361" r:id="rId360" display="http://sbub34.sa/" xr:uid="{FEBE6CD6-3911-5048-9FB1-CB3B6E312008}"/>
+    <hyperlink ref="B362" r:id="rId361" display="http://scar3.sa/" xr:uid="{6C343A00-D829-A44D-AA25-236348CDA06F}"/>
+    <hyperlink ref="B363" r:id="rId362" display="http://scar4.sa/" xr:uid="{0B433378-6ACE-6A44-9F88-51A41F71011C}"/>
+    <hyperlink ref="B364" r:id="rId363" display="http://seer3.sa/" xr:uid="{00171E2E-16F7-864B-A612-DD2BEECCBAA7}"/>
+    <hyperlink ref="B365" r:id="rId364" display="http://sgps3.sa/" xr:uid="{01F12E27-07DF-674D-B812-A28A211757CB}"/>
+    <hyperlink ref="B366" r:id="rId365" display="http://show3.sa/" xr:uid="{9860079D-8334-8D48-8014-BE15E7E8F29B}"/>
+    <hyperlink ref="B367" r:id="rId366" display="http://shul4.sa/" xr:uid="{C2C2A2BD-2906-4C4D-916A-37385DC866F5}"/>
+    <hyperlink ref="B368" r:id="rId367" display="http://slce3.sa/" xr:uid="{8FE916D2-6E05-F04E-A1A1-0C903321AAB2}"/>
+    <hyperlink ref="B369" r:id="rId368" display="http://sled3.sa/" xr:uid="{9465E492-29C2-6D43-8A19-6449D3B6CCFA}"/>
+    <hyperlink ref="B370" r:id="rId369" display="http://sled4.sa/" xr:uid="{2CCB04AC-F38E-114F-A712-330A662D74B0}"/>
+    <hyperlink ref="B371" r:id="rId370" display="http://smls3.sa/" xr:uid="{2B959B2F-C262-F74F-A353-A2690BCCD6A0}"/>
+    <hyperlink ref="B372" r:id="rId371" display="http://smto3.sa/" xr:uid="{2927582C-6AC8-8C45-BA0E-91CCF2B1FF8A}"/>
+    <hyperlink ref="B373" r:id="rId372" display="http://snsy5.sa/" xr:uid="{50678D56-697E-5E4E-A6FA-821FB60B7423}"/>
+    <hyperlink ref="B374" r:id="rId373" display="http://sond3.sa/" xr:uid="{107611B8-B4A2-C24F-A723-A71608E833C3}"/>
+    <hyperlink ref="B375" r:id="rId374" display="http://spri3.sa/" xr:uid="{FC3C7BBA-53EA-E644-9681-7DE9C0220FD5}"/>
+    <hyperlink ref="B376" r:id="rId375" display="http://stbp3.sa/" xr:uid="{E9553287-BCAE-1449-8BD6-378F611EC772}"/>
+    <hyperlink ref="B377" r:id="rId376" display="http://suba3.sa/" xr:uid="{B545FA10-20C1-154A-B045-4F39AD80C39A}"/>
+    <hyperlink ref="B378" r:id="rId377" display="http://suzb3.sa/" xr:uid="{177E0A36-1ADA-4547-A458-A1783BA5352B}"/>
+    <hyperlink ref="B379" r:id="rId378" display="http://suzb5.sa/" xr:uid="{924F67B7-08A4-C34F-B308-FE907F257F54}"/>
+    <hyperlink ref="B380" r:id="rId379" display="http://taee3.sa/" xr:uid="{0E56BA91-CD48-6C46-B277-59499AB5FD64}"/>
+    <hyperlink ref="B381" r:id="rId380" display="http://taee4.sa/" xr:uid="{3F828261-49CA-8E45-AE1E-C94797B4DF32}"/>
+    <hyperlink ref="B382" r:id="rId381" display="http://tble6.sa/" xr:uid="{D16B1A05-B209-8B41-B456-83A81730DF7C}"/>
+    <hyperlink ref="B383" r:id="rId382" display="http://tcno3.sa/" xr:uid="{3168371E-FDA5-7D4B-9B6C-ABB84D2E87EB}"/>
+    <hyperlink ref="B384" r:id="rId383" display="http://tcno4.sa/" xr:uid="{47663E5D-CC5F-6D47-B40E-870FA76E9B9B}"/>
+    <hyperlink ref="B385" r:id="rId384" display="http://tcsa3.sa/" xr:uid="{085F9DFE-F21F-4D47-8546-A7D30AB63FF5}"/>
+    <hyperlink ref="B386" r:id="rId385" display="http://tcsl4.sa/" xr:uid="{569B9DF2-1E72-E647-A192-AF096D39495B}"/>
+    <hyperlink ref="B387" r:id="rId386" display="http://tecn3.sa/" xr:uid="{F7BECA85-2D57-CE4F-B4A0-7295BA9DD54A}"/>
+    <hyperlink ref="B388" r:id="rId387" display="http://teka3.sa/" xr:uid="{A50C8489-231E-F64D-AC48-1E09D63C8773}"/>
+    <hyperlink ref="B389" r:id="rId388" display="http://teka4.sa/" xr:uid="{65C21F33-3E76-704A-93FE-7A8987F5C6B2}"/>
+    <hyperlink ref="B390" r:id="rId389" display="http://telb3.sa/" xr:uid="{30142B42-EBCA-CC49-B3DF-C0D68B3F00C1}"/>
+    <hyperlink ref="B391" r:id="rId390" display="http://telb4.sa/" xr:uid="{CF0C09AB-AFEB-C447-A654-4886EEEC63D8}"/>
+    <hyperlink ref="B392" r:id="rId391" display="http://tend3.sa/" xr:uid="{7E898659-7E84-FF4D-9A08-EABE3A13EC15}"/>
+    <hyperlink ref="B393" r:id="rId392" display="http://tepr30.sa/" xr:uid="{F234F2AC-ACC2-EE4E-99AC-0843AB471186}"/>
+    <hyperlink ref="B394" r:id="rId393" display="http://tesa3.sa/" xr:uid="{5FAAE8C4-B6A9-3F44-9A9B-E78595B377F7}"/>
+    <hyperlink ref="B395" r:id="rId394" display="http://texa34.sa/" xr:uid="{1D3BA540-525A-B740-9066-C1D004F915B2}"/>
+    <hyperlink ref="B396" r:id="rId395" display="http://tgma3.sa/" xr:uid="{906FFD65-96F0-EF4C-BF17-89E21A69A7D0}"/>
+    <hyperlink ref="B397" r:id="rId396" display="http://tiet3.sa/" xr:uid="{630B4CDB-BF76-BF4B-9F0B-0243C8CFA6C9}"/>
+    <hyperlink ref="B398" r:id="rId397" display="http://tiet4.sa/" xr:uid="{035DB262-86A7-224D-9188-6DBF4FBE5D73}"/>
+    <hyperlink ref="B399" r:id="rId398" display="http://timp3.sa/" xr:uid="{81AD32CD-21B2-A640-BADC-36AEF63AE268}"/>
+    <hyperlink ref="B400" r:id="rId399" display="http://tots3.sa/" xr:uid="{59C3EA6F-AE0B-B84E-87A8-0B31C6E1FD50}"/>
+    <hyperlink ref="B401" r:id="rId400" display="http://tpis3.sa/" xr:uid="{93385D80-11FF-4B4C-B264-B26763262C09}"/>
+    <hyperlink ref="B402" r:id="rId401" display="http://tris3.sa/" xr:uid="{6D72D43B-AB04-374F-AD18-C37C8932C163}"/>
+    <hyperlink ref="B403" r:id="rId402" display="http://trpl3.sa/" xr:uid="{03D88266-1E09-934C-9D86-0D2769E76A1A}"/>
+    <hyperlink ref="B404" r:id="rId403" display="http://trpl4.sa/" xr:uid="{0F399B87-3AEF-A84A-9A97-90A82860F724}"/>
+    <hyperlink ref="B405" r:id="rId404" display="http://tupy3.sa/" xr:uid="{C9E32F01-2FFD-6B44-B183-216953DDA157}"/>
+    <hyperlink ref="B406" r:id="rId405" display="http://txrx3.sa/" xr:uid="{85674881-7EED-A243-8D2A-FFE74D68C408}"/>
+    <hyperlink ref="B407" r:id="rId406" display="http://txrx4.sa/" xr:uid="{C599EC26-AED9-C140-B5C8-0B248188FA59}"/>
+    <hyperlink ref="B408" r:id="rId407" display="http://ucas3.sa/" xr:uid="{C377A5DA-4B8F-9E40-B9EE-E080EF9405D0}"/>
+    <hyperlink ref="B409" r:id="rId408" display="http://ugpa3.sa/" xr:uid="{1C021FBC-DA1C-7A4E-862E-90B874105B79}"/>
+    <hyperlink ref="B410" r:id="rId409" display="http://ugpa4.sa/" xr:uid="{5572509F-40CF-DA44-A0C1-32C33E4BB4CD}"/>
+    <hyperlink ref="B411" r:id="rId410" display="http://unip3.sa/" xr:uid="{4A1803CA-C8B4-3649-96A6-D1EF09A76777}"/>
+    <hyperlink ref="B412" r:id="rId411" display="http://unip5.sa/" xr:uid="{4F0554CE-EC24-9443-A195-6745D6336310}"/>
+    <hyperlink ref="B413" r:id="rId412" display="http://unip6.sa/" xr:uid="{7D6FDA78-F594-3444-965D-A13BC6950847}"/>
+    <hyperlink ref="B414" r:id="rId413" display="http://usim3.sa/" xr:uid="{468794B7-C697-B445-9676-776268752A93}"/>
+    <hyperlink ref="B415" r:id="rId414" display="http://usim5.sa/" xr:uid="{7F081189-1A3A-8949-88E8-8888A853597C}"/>
+    <hyperlink ref="B416" r:id="rId415" display="http://vale3.sa/" xr:uid="{6E980316-A307-5D4C-89D3-397B13D39592}"/>
+    <hyperlink ref="B417" r:id="rId416" display="http://vale5.sa/" xr:uid="{519FB611-0736-9F4C-8D35-17D730F9EEE7}"/>
+    <hyperlink ref="B418" r:id="rId417" display="http://verz34.sa/" xr:uid="{E9238610-A9CF-9845-8ED4-539CDC90BD6A}"/>
+    <hyperlink ref="B419" r:id="rId418" display="http://visa34.sa/" xr:uid="{68A1B2C8-85FE-BC47-849A-697675D428CF}"/>
+    <hyperlink ref="B420" r:id="rId419" display="http://viva3.sa/" xr:uid="{9398B2FE-A6B4-7540-8D39-72F34B88DD56}"/>
+    <hyperlink ref="B421" r:id="rId420" display="http://vivr3.sa/" xr:uid="{E9508D9A-46A2-194F-B7D3-FF70669C4D74}"/>
+    <hyperlink ref="B422" r:id="rId421" display="http://vivt3.sa/" xr:uid="{3D087220-8E7F-1348-8B19-B6299F5BA892}"/>
+    <hyperlink ref="B423" r:id="rId422" display="http://vivt4.sa/" xr:uid="{98309337-3D0A-824A-9E85-CE6E8187E0F2}"/>
+    <hyperlink ref="B424" r:id="rId423" display="http://vlid3.sa/" xr:uid="{4E995A17-7C10-D545-964F-7171FC893923}"/>
+    <hyperlink ref="B425" r:id="rId424" display="http://vulc3.sa/" xr:uid="{2AB0231A-B7F6-0340-A37C-219710DE8FDE}"/>
+    <hyperlink ref="B426" r:id="rId425" display="http://vvar3.sa/" xr:uid="{BE80CAD8-7088-304E-9B32-13C8A20F759B}"/>
+    <hyperlink ref="B427" r:id="rId426" display="http://vvar4s.sa/" xr:uid="{2080FF8F-9B2F-A748-B102-7B988D9D063C}"/>
+    <hyperlink ref="B428" r:id="rId427" display="http://walm34.sa/" xr:uid="{DB90BFBC-E4B2-2D48-B6D4-B45CBFC2895B}"/>
+    <hyperlink ref="B429" r:id="rId428" display="http://wege3.sa/" xr:uid="{6D4F7FB4-DA8F-E04B-909A-3E348BC40520}"/>
+    <hyperlink ref="B430" r:id="rId429" display="http://wege4.sa/" xr:uid="{9D87CF18-56D5-2644-A7E8-C374E51112DB}"/>
+    <hyperlink ref="B431" r:id="rId430" display="http://wfco34.sa/" xr:uid="{0D52B79D-F474-3A49-AC50-882F6EF42DB7}"/>
+    <hyperlink ref="B432" r:id="rId431" display="http://whrl3.sa/" xr:uid="{124BA339-7C92-904A-9CC1-F71C83F847D6}"/>
+    <hyperlink ref="B433" r:id="rId432" display="http://whrl4.sa/" xr:uid="{80DBD4D0-AF27-9948-962B-6D5BD6777051}"/>
+    <hyperlink ref="B434" r:id="rId433" display="http://wizs3.sa/" xr:uid="{C3B307B7-398C-2C49-BAFC-F4E7A8FBBB4B}"/>
+    <hyperlink ref="B435" r:id="rId434" display="http://wlmm4.sa/" xr:uid="{5AA30EA3-F2AF-0E4F-9A6A-F4032D45773E}"/>
+    <hyperlink ref="B436" r:id="rId435" display="http://wson33.sa/" xr:uid="{50EF9031-FFC5-B940-A5B5-18413E4B2FD3}"/>
+    <hyperlink ref="A437" r:id="rId436" display="http://elpl3.sa/" xr:uid="{AAD13E91-27CC-7F47-9EC9-4019ADC1CF78}"/>
+    <hyperlink ref="B437" r:id="rId437" display="http://elpl3.sa/" xr:uid="{7F60E272-2E6D-4943-9CED-69186E38C9EA}"/>
+    <hyperlink ref="B438" r:id="rId438" display="http://tasa4.sa/" xr:uid="{56B037D8-1FB9-DD41-AC58-AF3D7B30B4D7}"/>
+    <hyperlink ref="B439" r:id="rId439" display="http://toyb4.sa/" xr:uid="{E708CBC9-1E3C-9247-8D17-A93B9E13832F}"/>
+    <hyperlink ref="B440" r:id="rId440" display="http://tasa3.sa/" xr:uid="{EAE3B7F2-8580-DB41-B768-1998491C4CC5}"/>
+    <hyperlink ref="B441" r:id="rId441" display="http://ntco3.sa/" xr:uid="{7C3B5935-8501-9C48-BEC2-7357A28C89DD}"/>
+    <hyperlink ref="B442" r:id="rId442" display="http://yduq3.sa/" xr:uid="{E38F0DF9-C74E-AB42-BF15-E9FFF81EC05F}"/>
+    <hyperlink ref="B443" r:id="rId443" display="http://magg3.sa/" xr:uid="{76F0525D-5CF4-274B-BD64-3B4F5FB29923}"/>
+    <hyperlink ref="B444" r:id="rId444" display="http://ogxp3.sa/" xr:uid="{585C4CF3-CEA0-4640-A77F-60D73F616422}"/>
+    <hyperlink ref="B445" r:id="rId445" display="http://fibr3.sa/" xr:uid="{C896BAAF-CD18-2C4D-8FD3-FCEB81FFFD66}"/>
+    <hyperlink ref="B446" r:id="rId446" display="http://trpn3.sa/" xr:uid="{489FE2AA-48C6-0540-BDAE-CA4BB58571C2}"/>
+    <hyperlink ref="B447" r:id="rId447" display="http://alsc3.sa/" xr:uid="{5B68D178-EBD1-2E46-90F7-E7B43A3FFE75}"/>
+    <hyperlink ref="B448" r:id="rId448" display="http://aper3.sa/" xr:uid="{3194FF83-13CF-FF45-BF08-2E6D31D3D56F}"/>
+    <hyperlink ref="B449" r:id="rId449" display="http://mplu3.sa/" xr:uid="{CF536589-B2A6-6548-91FE-1FF4A88A6FB3}"/>
+    <hyperlink ref="B450" r:id="rId450" display="http://bpha3.sa/" xr:uid="{D233B282-C019-7349-955C-D23941494CA2}"/>
+    <hyperlink ref="B451" r:id="rId451" display="http://eqpa3.sa/" xr:uid="{CD79A4A5-4161-5A48-8B9A-12A44B4B15DE}"/>
+    <hyperlink ref="B452" r:id="rId452" display="http://enat3.sa/" xr:uid="{13599DBE-8C6D-9D43-B101-0703F52107FC}"/>
+    <hyperlink ref="B453" r:id="rId453" display="http://also3.sa/" xr:uid="{3EF656C2-DEAA-1549-85E2-99582FBA7BE6}"/>
+    <hyperlink ref="B454" r:id="rId454" display="http://ccxc3.sa/" xr:uid="{DDDE6D84-E063-E846-B253-9B9BF2A399B0}"/>
+    <hyperlink ref="B455" r:id="rId455" display="http://cogn3.sa/" xr:uid="{B86D64FC-93D2-DF4D-A9AF-D369915A4886}"/>
+    <hyperlink ref="B456" r:id="rId456" display="http://sqia3.sa/" xr:uid="{3DE6018C-4979-0442-8FE9-96F4F7CEC273}"/>
+    <hyperlink ref="B457" r:id="rId457" display="http://sedu3.sa/" xr:uid="{D8F8CD52-9B9F-B546-AC98-B91DB695035D}"/>
+    <hyperlink ref="B458" r:id="rId458" display="http://atmp3.sa/" xr:uid="{3327F15C-6009-BE48-84C0-45740DED080E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId211"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId459"/>
 </worksheet>
 </file>